--- a/src/main/resources/uk/gov/hmcts/ccd/test_definitions/excel/Access_Control_Definition_J1.xlsx
+++ b/src/main/resources/uk/gov/hmcts/ccd/test_definitions/excel/Access_Control_Definition_J1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashleynoronha/code/ccd/ccd-test-definitions/src/main/resources/uk/gov/hmcts/ccd/test_definitions/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8A4FABE-0101-3C4C-B41A-AD9ECFC66944}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F06C6BD-E92C-0546-85AA-8A530BBC7B09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="460" windowWidth="38400" windowHeight="20160" firstSheet="11" activeTab="21" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28800" yWindow="4060" windowWidth="28800" windowHeight="16560" firstSheet="18" activeTab="24" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Jurisdiction" sheetId="1" r:id="rId1"/>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2489" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2495" uniqueCount="375">
   <si>
     <t>Jurisdiction</t>
   </si>
@@ -1740,7 +1740,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="22">
+  <fills count="23">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1863,8 +1863,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
+        <fgColor theme="3" tint="0.79998168889431442"/>
         <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -2130,7 +2136,7 @@
     <xf numFmtId="0" fontId="62" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="588">
+  <cellXfs count="601">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
@@ -3660,11 +3666,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="71" fillId="16" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="71" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="71" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="71" fillId="16" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3677,12 +3678,42 @@
     </xf>
     <xf numFmtId="0" fontId="71" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="71" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="0" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="33" fillId="21" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="33" fillId="21" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="71" fillId="21" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="71" fillId="21" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="71" fillId="22" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="33" fillId="22" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="22" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="22" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="71" fillId="22" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="22" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="16">
     <cellStyle name="Explanatory Text" xfId="14" builtinId="53"/>
@@ -12584,7 +12615,7 @@
 </file>
 
 <file path=xl/tables/table24.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{315AA6A0-C96B-A042-AD60-5F6D63D17CA6}" name="Table22" displayName="Table22" ref="A3:F70" totalsRowShown="0" headerRowDxfId="21" headerRowBorderDxfId="20" tableBorderDxfId="19" totalsRowBorderDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{315AA6A0-C96B-A042-AD60-5F6D63D17CA6}" name="Table22" displayName="Table22" ref="A3:F69" totalsRowShown="0" headerRowDxfId="21" headerRowBorderDxfId="20" tableBorderDxfId="19" totalsRowBorderDxfId="18">
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{509EB312-569C-A943-92C0-18A849F5F9AF}" name="LiveFrom" dataDxfId="17"/>
     <tableColumn id="2" xr3:uid="{806AAD02-2C59-5441-80DF-1037D88236E9}" name="LiveTo" dataDxfId="16"/>
@@ -12598,7 +12629,7 @@
 </file>
 
 <file path=xl/tables/table25.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{A3BF40E7-D513-8F4C-84E2-9360695087C6}" name="Table2214" displayName="Table2214" ref="A3:K48" totalsRowShown="0" headerRowDxfId="11" headerRowBorderDxfId="10" tableBorderDxfId="9" totalsRowBorderDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{A3BF40E7-D513-8F4C-84E2-9360695087C6}" name="Table2214" displayName="Table2214" ref="A3:K50" totalsRowShown="0" headerRowDxfId="11" headerRowBorderDxfId="10" tableBorderDxfId="9" totalsRowBorderDxfId="8">
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{09FC8A4F-739A-B146-9FE9-53F353067853}" name="LiveFrom" dataDxfId="7"/>
     <tableColumn id="7" xr3:uid="{55191203-C618-2645-A397-D76EC379BC5B}" name="LiveTo" dataDxfId="6"/>
@@ -16761,7 +16792,7 @@
   <dimension ref="A1:W21"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD11"/>
+      <selection activeCell="B8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.25" customHeight="1"/>
@@ -17084,129 +17115,129 @@
       <c r="U6" s="54"/>
       <c r="V6" s="57"/>
     </row>
-    <row r="7" spans="1:23" s="318" customFormat="1" ht="20" customHeight="1">
-      <c r="A7" s="53">
+    <row r="7" spans="1:23" s="439" customFormat="1" ht="20" customHeight="1">
+      <c r="A7" s="291">
         <v>42736</v>
       </c>
-      <c r="B7" s="53"/>
-      <c r="C7" s="555" t="s">
+      <c r="B7" s="291"/>
+      <c r="C7" s="582" t="s">
         <v>320</v>
       </c>
-      <c r="D7" s="555" t="s">
+      <c r="D7" s="582" t="s">
         <v>340</v>
       </c>
-      <c r="E7" s="555" t="s">
+      <c r="E7" s="582" t="s">
         <v>341</v>
       </c>
-      <c r="F7" s="555" t="s">
+      <c r="F7" s="582" t="s">
         <v>341</v>
       </c>
-      <c r="G7" s="71">
+      <c r="G7" s="376">
         <v>1</v>
       </c>
-      <c r="H7" s="555"/>
-      <c r="I7" s="555" t="s">
+      <c r="H7" s="582"/>
+      <c r="I7" s="582" t="s">
         <v>342</v>
       </c>
-      <c r="J7" s="54"/>
-      <c r="K7" s="98"/>
-      <c r="L7" s="98"/>
-      <c r="M7" s="98"/>
-      <c r="N7" s="98"/>
-      <c r="O7" s="98"/>
-      <c r="P7" s="98"/>
-      <c r="Q7" s="555" t="s">
+      <c r="J7" s="292"/>
+      <c r="K7" s="379"/>
+      <c r="L7" s="379"/>
+      <c r="M7" s="379"/>
+      <c r="N7" s="379"/>
+      <c r="O7" s="379"/>
+      <c r="P7" s="379"/>
+      <c r="Q7" s="582" t="s">
         <v>75</v>
       </c>
-      <c r="R7" s="54"/>
-      <c r="S7" s="72"/>
-      <c r="T7" s="72"/>
-      <c r="U7" s="54"/>
-      <c r="V7" s="54"/>
-    </row>
-    <row r="8" spans="1:23" s="322" customFormat="1" ht="20" customHeight="1">
-      <c r="A8" s="53">
+      <c r="R7" s="292"/>
+      <c r="S7" s="293"/>
+      <c r="T7" s="293"/>
+      <c r="U7" s="292"/>
+      <c r="V7" s="292"/>
+    </row>
+    <row r="8" spans="1:23" s="584" customFormat="1" ht="20" customHeight="1">
+      <c r="A8" s="291">
         <v>42736</v>
       </c>
-      <c r="B8" s="75"/>
-      <c r="C8" s="555" t="s">
+      <c r="B8" s="258"/>
+      <c r="C8" s="582" t="s">
         <v>320</v>
       </c>
-      <c r="D8" s="555" t="s">
+      <c r="D8" s="582" t="s">
         <v>343</v>
       </c>
-      <c r="E8" s="555" t="s">
+      <c r="E8" s="582" t="s">
         <v>344</v>
       </c>
-      <c r="F8" s="555" t="s">
+      <c r="F8" s="582" t="s">
         <v>344</v>
       </c>
-      <c r="G8" s="71">
+      <c r="G8" s="376">
         <v>1</v>
       </c>
-      <c r="H8" s="555" t="s">
+      <c r="H8" s="582" t="s">
         <v>370</v>
       </c>
-      <c r="I8" s="555" t="s">
+      <c r="I8" s="582" t="s">
         <v>345</v>
       </c>
-      <c r="J8" s="57"/>
-      <c r="K8" s="100"/>
-      <c r="L8" s="100"/>
-      <c r="M8" s="100"/>
-      <c r="N8" s="100"/>
-      <c r="O8" s="100"/>
-      <c r="P8" s="100"/>
-      <c r="Q8" s="555" t="s">
+      <c r="J8" s="259"/>
+      <c r="K8" s="583"/>
+      <c r="L8" s="583"/>
+      <c r="M8" s="583"/>
+      <c r="N8" s="583"/>
+      <c r="O8" s="583"/>
+      <c r="P8" s="583"/>
+      <c r="Q8" s="582" t="s">
         <v>75</v>
       </c>
-      <c r="R8" s="60"/>
-      <c r="S8" s="75"/>
-      <c r="T8" s="75"/>
-      <c r="U8" s="60"/>
-      <c r="V8" s="60"/>
-    </row>
-    <row r="9" spans="1:23" s="318" customFormat="1" ht="20" customHeight="1">
-      <c r="A9" s="53">
+      <c r="R8" s="274"/>
+      <c r="S8" s="258"/>
+      <c r="T8" s="258"/>
+      <c r="U8" s="274"/>
+      <c r="V8" s="274"/>
+    </row>
+    <row r="9" spans="1:23" s="439" customFormat="1" ht="20" customHeight="1">
+      <c r="A9" s="291">
         <v>42736</v>
       </c>
-      <c r="B9" s="61"/>
-      <c r="C9" s="555" t="s">
+      <c r="B9" s="344"/>
+      <c r="C9" s="582" t="s">
         <v>320</v>
       </c>
-      <c r="D9" s="555" t="s">
+      <c r="D9" s="582" t="s">
         <v>346</v>
       </c>
-      <c r="E9" s="555" t="s">
+      <c r="E9" s="582" t="s">
         <v>344</v>
       </c>
-      <c r="F9" s="555" t="s">
+      <c r="F9" s="582" t="s">
         <v>344</v>
       </c>
-      <c r="G9" s="71">
+      <c r="G9" s="376">
         <v>1</v>
       </c>
-      <c r="H9" s="555" t="s">
+      <c r="H9" s="582" t="s">
         <v>342</v>
       </c>
-      <c r="I9" s="555" t="s">
+      <c r="I9" s="582" t="s">
         <v>347</v>
       </c>
-      <c r="J9" s="54"/>
-      <c r="K9" s="98"/>
-      <c r="L9" s="98"/>
-      <c r="M9" s="98"/>
-      <c r="N9" s="98"/>
-      <c r="O9" s="98"/>
-      <c r="P9" s="98"/>
-      <c r="Q9" s="555" t="s">
+      <c r="J9" s="292"/>
+      <c r="K9" s="379"/>
+      <c r="L9" s="379"/>
+      <c r="M9" s="379"/>
+      <c r="N9" s="379"/>
+      <c r="O9" s="379"/>
+      <c r="P9" s="379"/>
+      <c r="Q9" s="582" t="s">
         <v>318</v>
       </c>
-      <c r="R9" s="54"/>
-      <c r="S9" s="72"/>
-      <c r="T9" s="72"/>
-      <c r="U9" s="54"/>
-      <c r="V9" s="54"/>
+      <c r="R9" s="292"/>
+      <c r="S9" s="293"/>
+      <c r="T9" s="293"/>
+      <c r="U9" s="292"/>
+      <c r="V9" s="292"/>
     </row>
     <row r="10" spans="1:23" s="322" customFormat="1" ht="20" customHeight="1">
       <c r="A10" s="53">
@@ -18322,7 +18353,7 @@
       <c r="D17" s="555" t="s">
         <v>340</v>
       </c>
-      <c r="E17" s="587" t="s">
+      <c r="E17" s="581" t="s">
         <v>372</v>
       </c>
       <c r="F17" s="560">
@@ -25808,7 +25839,7 @@
       <c r="H2" s="365"/>
       <c r="I2" s="365"/>
     </row>
-    <row r="3" spans="1:9" s="580" customFormat="1" ht="20" customHeight="1">
+    <row r="3" spans="1:9" s="577" customFormat="1" ht="20" customHeight="1">
       <c r="A3" s="346" t="s">
         <v>9</v>
       </c>
@@ -25837,7 +25868,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="579" customFormat="1" ht="20" customHeight="1">
+    <row r="4" spans="1:9" s="576" customFormat="1" ht="20" customHeight="1">
       <c r="A4" s="397">
         <v>42736</v>
       </c>
@@ -25858,7 +25889,7 @@
       <c r="H4" s="398"/>
       <c r="I4" s="401"/>
     </row>
-    <row r="5" spans="1:9" s="579" customFormat="1" ht="20" customHeight="1">
+    <row r="5" spans="1:9" s="576" customFormat="1" ht="20" customHeight="1">
       <c r="A5" s="397">
         <v>42736</v>
       </c>
@@ -25879,7 +25910,7 @@
       <c r="H5" s="398"/>
       <c r="I5" s="401"/>
     </row>
-    <row r="6" spans="1:9" s="579" customFormat="1" ht="20" customHeight="1">
+    <row r="6" spans="1:9" s="576" customFormat="1" ht="20" customHeight="1">
       <c r="A6" s="397">
         <v>42736</v>
       </c>
@@ -25900,7 +25931,7 @@
       <c r="H6" s="398"/>
       <c r="I6" s="401"/>
     </row>
-    <row r="7" spans="1:9" s="579" customFormat="1" ht="20" customHeight="1">
+    <row r="7" spans="1:9" s="576" customFormat="1" ht="20" customHeight="1">
       <c r="A7" s="397">
         <v>42736</v>
       </c>
@@ -25921,7 +25952,7 @@
       <c r="H7" s="398"/>
       <c r="I7" s="401"/>
     </row>
-    <row r="8" spans="1:9" s="579" customFormat="1" ht="20" customHeight="1">
+    <row r="8" spans="1:9" s="576" customFormat="1" ht="20" customHeight="1">
       <c r="A8" s="397">
         <v>42736</v>
       </c>
@@ -25942,7 +25973,7 @@
       <c r="H8" s="398"/>
       <c r="I8" s="401"/>
     </row>
-    <row r="9" spans="1:9" s="579" customFormat="1" ht="20" customHeight="1">
+    <row r="9" spans="1:9" s="576" customFormat="1" ht="20" customHeight="1">
       <c r="A9" s="397">
         <v>42736</v>
       </c>
@@ -25963,7 +25994,7 @@
       <c r="H9" s="398"/>
       <c r="I9" s="401"/>
     </row>
-    <row r="10" spans="1:9" s="579" customFormat="1" ht="20" customHeight="1">
+    <row r="10" spans="1:9" s="576" customFormat="1" ht="20" customHeight="1">
       <c r="A10" s="118"/>
       <c r="B10" s="137"/>
       <c r="C10" s="119"/>
@@ -25974,7 +26005,7 @@
       <c r="H10" s="410"/>
       <c r="I10" s="410"/>
     </row>
-    <row r="11" spans="1:9" s="579" customFormat="1" ht="20" customHeight="1">
+    <row r="11" spans="1:9" s="576" customFormat="1" ht="20" customHeight="1">
       <c r="A11" s="118"/>
       <c r="B11" s="137"/>
       <c r="C11" s="119"/>
@@ -25985,7 +26016,7 @@
       <c r="H11" s="410"/>
       <c r="I11" s="410"/>
     </row>
-    <row r="12" spans="1:9" s="579" customFormat="1" ht="20" customHeight="1">
+    <row r="12" spans="1:9" s="576" customFormat="1" ht="20" customHeight="1">
       <c r="A12" s="118"/>
       <c r="B12" s="137"/>
       <c r="C12" s="119"/>
@@ -25996,7 +26027,7 @@
       <c r="H12" s="410"/>
       <c r="I12" s="410"/>
     </row>
-    <row r="13" spans="1:9" s="579" customFormat="1" ht="20" customHeight="1">
+    <row r="13" spans="1:9" s="576" customFormat="1" ht="20" customHeight="1">
       <c r="A13" s="118"/>
       <c r="B13" s="137"/>
       <c r="C13" s="119"/>
@@ -26007,7 +26038,7 @@
       <c r="H13" s="410"/>
       <c r="I13" s="410"/>
     </row>
-    <row r="14" spans="1:9" s="579" customFormat="1" ht="20" customHeight="1">
+    <row r="14" spans="1:9" s="576" customFormat="1" ht="20" customHeight="1">
       <c r="A14" s="118"/>
       <c r="B14" s="137"/>
       <c r="C14" s="138"/>
@@ -26018,7 +26049,7 @@
       <c r="H14" s="410"/>
       <c r="I14" s="410"/>
     </row>
-    <row r="15" spans="1:9" s="579" customFormat="1" ht="20" customHeight="1">
+    <row r="15" spans="1:9" s="576" customFormat="1" ht="20" customHeight="1">
       <c r="A15" s="118"/>
       <c r="B15" s="137"/>
       <c r="C15" s="138"/>
@@ -26029,7 +26060,7 @@
       <c r="H15" s="410"/>
       <c r="I15" s="410"/>
     </row>
-    <row r="16" spans="1:9" s="579" customFormat="1" ht="20" customHeight="1">
+    <row r="16" spans="1:9" s="576" customFormat="1" ht="20" customHeight="1">
       <c r="A16" s="118"/>
       <c r="B16" s="137"/>
       <c r="C16" s="119"/>
@@ -26040,7 +26071,7 @@
       <c r="H16" s="410"/>
       <c r="I16" s="410"/>
     </row>
-    <row r="17" spans="1:9" s="579" customFormat="1" ht="20" customHeight="1">
+    <row r="17" spans="1:9" s="576" customFormat="1" ht="20" customHeight="1">
       <c r="A17" s="118"/>
       <c r="B17" s="137"/>
       <c r="C17" s="119"/>
@@ -26051,7 +26082,7 @@
       <c r="H17" s="410"/>
       <c r="I17" s="410"/>
     </row>
-    <row r="18" spans="1:9" s="579" customFormat="1" ht="20" customHeight="1">
+    <row r="18" spans="1:9" s="576" customFormat="1" ht="20" customHeight="1">
       <c r="A18" s="118"/>
       <c r="B18" s="137"/>
       <c r="C18" s="119"/>
@@ -26062,7 +26093,7 @@
       <c r="H18" s="410"/>
       <c r="I18" s="410"/>
     </row>
-    <row r="19" spans="1:9" s="579" customFormat="1" ht="20" customHeight="1">
+    <row r="19" spans="1:9" s="576" customFormat="1" ht="20" customHeight="1">
       <c r="A19" s="118"/>
       <c r="B19" s="137"/>
       <c r="C19" s="119"/>
@@ -26073,7 +26104,7 @@
       <c r="H19" s="410"/>
       <c r="I19" s="410"/>
     </row>
-    <row r="20" spans="1:9" s="579" customFormat="1" ht="20" customHeight="1">
+    <row r="20" spans="1:9" s="576" customFormat="1" ht="20" customHeight="1">
       <c r="A20" s="118"/>
       <c r="B20" s="137"/>
       <c r="C20" s="119"/>
@@ -26084,7 +26115,7 @@
       <c r="H20" s="410"/>
       <c r="I20" s="410"/>
     </row>
-    <row r="21" spans="1:9" s="579" customFormat="1" ht="20" customHeight="1">
+    <row r="21" spans="1:9" s="576" customFormat="1" ht="20" customHeight="1">
       <c r="A21" s="118"/>
       <c r="B21" s="137"/>
       <c r="C21" s="119"/>
@@ -26095,7 +26126,7 @@
       <c r="H21" s="410"/>
       <c r="I21" s="410"/>
     </row>
-    <row r="22" spans="1:9" s="579" customFormat="1" ht="20" customHeight="1">
+    <row r="22" spans="1:9" s="576" customFormat="1" ht="20" customHeight="1">
       <c r="A22" s="118"/>
       <c r="B22" s="137"/>
       <c r="C22" s="119"/>
@@ -26106,7 +26137,7 @@
       <c r="H22" s="410"/>
       <c r="I22" s="410"/>
     </row>
-    <row r="23" spans="1:9" s="579" customFormat="1" ht="20" customHeight="1">
+    <row r="23" spans="1:9" s="576" customFormat="1" ht="20" customHeight="1">
       <c r="A23" s="118"/>
       <c r="B23" s="137"/>
       <c r="C23" s="119"/>
@@ -26117,7 +26148,7 @@
       <c r="H23" s="411"/>
       <c r="I23" s="410"/>
     </row>
-    <row r="24" spans="1:9" s="579" customFormat="1" ht="20" customHeight="1">
+    <row r="24" spans="1:9" s="576" customFormat="1" ht="20" customHeight="1">
       <c r="A24" s="118"/>
       <c r="B24" s="137"/>
       <c r="C24" s="119"/>
@@ -26128,7 +26159,7 @@
       <c r="H24" s="411"/>
       <c r="I24" s="410"/>
     </row>
-    <row r="25" spans="1:9" s="579" customFormat="1" ht="20" customHeight="1">
+    <row r="25" spans="1:9" s="576" customFormat="1" ht="20" customHeight="1">
       <c r="A25" s="118"/>
       <c r="B25" s="137"/>
       <c r="C25" s="119"/>
@@ -26139,7 +26170,7 @@
       <c r="H25" s="410"/>
       <c r="I25" s="410"/>
     </row>
-    <row r="26" spans="1:9" s="579" customFormat="1" ht="20" customHeight="1">
+    <row r="26" spans="1:9" s="576" customFormat="1" ht="20" customHeight="1">
       <c r="A26" s="118"/>
       <c r="B26" s="137"/>
       <c r="C26" s="119"/>
@@ -26150,7 +26181,7 @@
       <c r="H26" s="410"/>
       <c r="I26" s="410"/>
     </row>
-    <row r="27" spans="1:9" s="579" customFormat="1" ht="20" customHeight="1">
+    <row r="27" spans="1:9" s="576" customFormat="1" ht="20" customHeight="1">
       <c r="A27" s="118"/>
       <c r="B27" s="137"/>
       <c r="C27" s="119"/>
@@ -26161,7 +26192,7 @@
       <c r="H27" s="410"/>
       <c r="I27" s="410"/>
     </row>
-    <row r="28" spans="1:9" s="579" customFormat="1" ht="20" customHeight="1">
+    <row r="28" spans="1:9" s="576" customFormat="1" ht="20" customHeight="1">
       <c r="A28" s="118"/>
       <c r="B28" s="137"/>
       <c r="C28" s="119"/>
@@ -26172,7 +26203,7 @@
       <c r="H28" s="410"/>
       <c r="I28" s="410"/>
     </row>
-    <row r="29" spans="1:9" s="579" customFormat="1" ht="20" customHeight="1">
+    <row r="29" spans="1:9" s="576" customFormat="1" ht="20" customHeight="1">
       <c r="A29" s="118"/>
       <c r="B29" s="137"/>
       <c r="C29" s="119"/>
@@ -26183,7 +26214,7 @@
       <c r="H29" s="410"/>
       <c r="I29" s="410"/>
     </row>
-    <row r="30" spans="1:9" s="579" customFormat="1" ht="20" customHeight="1">
+    <row r="30" spans="1:9" s="576" customFormat="1" ht="20" customHeight="1">
       <c r="A30" s="118"/>
       <c r="B30" s="137"/>
       <c r="C30" s="119"/>
@@ -26194,7 +26225,7 @@
       <c r="H30" s="410"/>
       <c r="I30" s="410"/>
     </row>
-    <row r="31" spans="1:9" s="579" customFormat="1" ht="20" customHeight="1">
+    <row r="31" spans="1:9" s="576" customFormat="1" ht="20" customHeight="1">
       <c r="A31" s="118"/>
       <c r="B31" s="137"/>
       <c r="C31" s="119"/>
@@ -26205,7 +26236,7 @@
       <c r="H31" s="410"/>
       <c r="I31" s="410"/>
     </row>
-    <row r="32" spans="1:9" s="579" customFormat="1" ht="20" customHeight="1">
+    <row r="32" spans="1:9" s="576" customFormat="1" ht="20" customHeight="1">
       <c r="A32" s="118"/>
       <c r="B32" s="137"/>
       <c r="C32" s="119"/>
@@ -26216,7 +26247,7 @@
       <c r="H32" s="410"/>
       <c r="I32" s="410"/>
     </row>
-    <row r="33" spans="1:9" s="579" customFormat="1" ht="20" customHeight="1">
+    <row r="33" spans="1:9" s="576" customFormat="1" ht="20" customHeight="1">
       <c r="A33" s="118"/>
       <c r="B33" s="137"/>
       <c r="C33" s="119"/>
@@ -26227,7 +26258,7 @@
       <c r="H33" s="410"/>
       <c r="I33" s="410"/>
     </row>
-    <row r="34" spans="1:9" s="579" customFormat="1" ht="20" customHeight="1">
+    <row r="34" spans="1:9" s="576" customFormat="1" ht="20" customHeight="1">
       <c r="A34" s="402"/>
       <c r="B34" s="403"/>
       <c r="C34" s="248"/>
@@ -26238,7 +26269,7 @@
       <c r="H34" s="412"/>
       <c r="I34" s="412"/>
     </row>
-    <row r="35" spans="1:9" s="579" customFormat="1" ht="20" customHeight="1">
+    <row r="35" spans="1:9" s="576" customFormat="1" ht="20" customHeight="1">
       <c r="A35" s="402"/>
       <c r="B35" s="403"/>
       <c r="C35" s="248"/>
@@ -26249,7 +26280,7 @@
       <c r="H35" s="412"/>
       <c r="I35" s="412"/>
     </row>
-    <row r="36" spans="1:9" s="579" customFormat="1" ht="20" customHeight="1">
+    <row r="36" spans="1:9" s="576" customFormat="1" ht="20" customHeight="1">
       <c r="A36" s="405"/>
       <c r="B36" s="406"/>
       <c r="C36" s="407"/>
@@ -26260,7 +26291,7 @@
       <c r="H36" s="413"/>
       <c r="I36" s="413"/>
     </row>
-    <row r="37" spans="1:9" s="579" customFormat="1" ht="20" customHeight="1">
+    <row r="37" spans="1:9" s="576" customFormat="1" ht="20" customHeight="1">
       <c r="A37" s="118"/>
       <c r="B37" s="137"/>
       <c r="C37" s="119"/>
@@ -26271,7 +26302,7 @@
       <c r="H37" s="410"/>
       <c r="I37" s="410"/>
     </row>
-    <row r="38" spans="1:9" s="579" customFormat="1" ht="20" customHeight="1">
+    <row r="38" spans="1:9" s="576" customFormat="1" ht="20" customHeight="1">
       <c r="A38" s="118"/>
       <c r="B38" s="137"/>
       <c r="C38" s="119"/>
@@ -26282,7 +26313,7 @@
       <c r="H38" s="410"/>
       <c r="I38" s="410"/>
     </row>
-    <row r="39" spans="1:9" s="579" customFormat="1" ht="20" customHeight="1">
+    <row r="39" spans="1:9" s="576" customFormat="1" ht="20" customHeight="1">
       <c r="A39" s="118"/>
       <c r="B39" s="137"/>
       <c r="C39" s="119"/>
@@ -26293,7 +26324,7 @@
       <c r="H39" s="410"/>
       <c r="I39" s="410"/>
     </row>
-    <row r="40" spans="1:9" s="579" customFormat="1" ht="20" customHeight="1">
+    <row r="40" spans="1:9" s="576" customFormat="1" ht="20" customHeight="1">
       <c r="A40" s="118"/>
       <c r="B40" s="137"/>
       <c r="C40" s="119"/>
@@ -26304,7 +26335,7 @@
       <c r="H40" s="410"/>
       <c r="I40" s="410"/>
     </row>
-    <row r="41" spans="1:9" s="579" customFormat="1" ht="20" customHeight="1">
+    <row r="41" spans="1:9" s="576" customFormat="1" ht="20" customHeight="1">
       <c r="A41" s="118"/>
       <c r="B41" s="137"/>
       <c r="C41" s="119"/>
@@ -26315,7 +26346,7 @@
       <c r="H41" s="410"/>
       <c r="I41" s="410"/>
     </row>
-    <row r="42" spans="1:9" s="579" customFormat="1" ht="20" customHeight="1">
+    <row r="42" spans="1:9" s="576" customFormat="1" ht="20" customHeight="1">
       <c r="A42" s="118"/>
       <c r="B42" s="137"/>
       <c r="C42" s="119"/>
@@ -26326,7 +26357,7 @@
       <c r="H42" s="410"/>
       <c r="I42" s="410"/>
     </row>
-    <row r="43" spans="1:9" s="579" customFormat="1" ht="20" customHeight="1">
+    <row r="43" spans="1:9" s="576" customFormat="1" ht="20" customHeight="1">
       <c r="A43" s="118"/>
       <c r="B43" s="137"/>
       <c r="C43" s="119"/>
@@ -26337,7 +26368,7 @@
       <c r="H43" s="410"/>
       <c r="I43" s="410"/>
     </row>
-    <row r="44" spans="1:9" s="579" customFormat="1" ht="20" customHeight="1">
+    <row r="44" spans="1:9" s="576" customFormat="1" ht="20" customHeight="1">
       <c r="A44" s="118"/>
       <c r="B44" s="137"/>
       <c r="C44" s="119"/>
@@ -26348,7 +26379,7 @@
       <c r="H44" s="410"/>
       <c r="I44" s="426"/>
     </row>
-    <row r="45" spans="1:9" s="579" customFormat="1" ht="20" customHeight="1">
+    <row r="45" spans="1:9" s="576" customFormat="1" ht="20" customHeight="1">
       <c r="A45" s="118"/>
       <c r="B45" s="137"/>
       <c r="C45" s="119"/>
@@ -26359,7 +26390,7 @@
       <c r="H45" s="410"/>
       <c r="I45" s="426"/>
     </row>
-    <row r="46" spans="1:9" s="579" customFormat="1" ht="20" customHeight="1">
+    <row r="46" spans="1:9" s="576" customFormat="1" ht="20" customHeight="1">
       <c r="A46" s="118"/>
       <c r="B46" s="137"/>
       <c r="C46" s="119"/>
@@ -26370,7 +26401,7 @@
       <c r="H46" s="410"/>
       <c r="I46" s="426"/>
     </row>
-    <row r="47" spans="1:9" s="579" customFormat="1" ht="20" customHeight="1">
+    <row r="47" spans="1:9" s="576" customFormat="1" ht="20" customHeight="1">
       <c r="A47" s="118"/>
       <c r="B47" s="137"/>
       <c r="C47" s="119"/>
@@ -26381,7 +26412,7 @@
       <c r="H47" s="410"/>
       <c r="I47" s="426"/>
     </row>
-    <row r="48" spans="1:9" s="579" customFormat="1" ht="20" customHeight="1">
+    <row r="48" spans="1:9" s="576" customFormat="1" ht="20" customHeight="1">
       <c r="A48" s="118"/>
       <c r="B48" s="137"/>
       <c r="C48" s="119"/>
@@ -26392,7 +26423,7 @@
       <c r="H48" s="410"/>
       <c r="I48" s="426"/>
     </row>
-    <row r="49" spans="1:9" s="579" customFormat="1" ht="20" customHeight="1">
+    <row r="49" spans="1:9" s="576" customFormat="1" ht="20" customHeight="1">
       <c r="A49" s="118"/>
       <c r="B49" s="137"/>
       <c r="C49" s="119"/>
@@ -26403,7 +26434,7 @@
       <c r="H49" s="410"/>
       <c r="I49" s="426"/>
     </row>
-    <row r="50" spans="1:9" s="579" customFormat="1" ht="20" customHeight="1">
+    <row r="50" spans="1:9" s="576" customFormat="1" ht="20" customHeight="1">
       <c r="A50" s="118"/>
       <c r="B50" s="137"/>
       <c r="C50" s="427"/>
@@ -26414,7 +26445,7 @@
       <c r="H50" s="410"/>
       <c r="I50" s="426"/>
     </row>
-    <row r="51" spans="1:9" s="579" customFormat="1" ht="20" customHeight="1">
+    <row r="51" spans="1:9" s="576" customFormat="1" ht="20" customHeight="1">
       <c r="A51" s="118"/>
       <c r="B51" s="137"/>
       <c r="C51" s="119"/>
@@ -26425,7 +26456,7 @@
       <c r="H51" s="410"/>
       <c r="I51" s="426"/>
     </row>
-    <row r="52" spans="1:9" s="579" customFormat="1" ht="20" customHeight="1">
+    <row r="52" spans="1:9" s="576" customFormat="1" ht="20" customHeight="1">
       <c r="A52" s="118"/>
       <c r="B52" s="137"/>
       <c r="C52" s="119"/>
@@ -26436,7 +26467,7 @@
       <c r="H52" s="410"/>
       <c r="I52" s="426"/>
     </row>
-    <row r="53" spans="1:9" s="579" customFormat="1" ht="20" customHeight="1">
+    <row r="53" spans="1:9" s="576" customFormat="1" ht="20" customHeight="1">
       <c r="A53" s="126"/>
       <c r="B53" s="126"/>
       <c r="C53" s="57"/>
@@ -26447,7 +26478,7 @@
       <c r="H53" s="69"/>
       <c r="I53" s="426"/>
     </row>
-    <row r="54" spans="1:9" s="579" customFormat="1" ht="20" customHeight="1">
+    <row r="54" spans="1:9" s="576" customFormat="1" ht="20" customHeight="1">
       <c r="A54" s="488"/>
       <c r="B54" s="489"/>
       <c r="C54" s="482"/>
@@ -26458,7 +26489,7 @@
       <c r="H54" s="493"/>
       <c r="I54" s="493"/>
     </row>
-    <row r="55" spans="1:9" s="579" customFormat="1" ht="20" customHeight="1">
+    <row r="55" spans="1:9" s="576" customFormat="1" ht="20" customHeight="1">
       <c r="A55" s="118"/>
       <c r="B55" s="137"/>
       <c r="C55" s="119"/>
@@ -26469,7 +26500,7 @@
       <c r="H55" s="410"/>
       <c r="I55" s="410"/>
     </row>
-    <row r="56" spans="1:9" s="579" customFormat="1" ht="20" customHeight="1">
+    <row r="56" spans="1:9" s="576" customFormat="1" ht="20" customHeight="1">
       <c r="A56" s="537"/>
       <c r="B56" s="538"/>
       <c r="C56" s="539"/>
@@ -26480,7 +26511,7 @@
       <c r="H56" s="542"/>
       <c r="I56" s="542"/>
     </row>
-    <row r="57" spans="1:9" s="579" customFormat="1" ht="20" customHeight="1">
+    <row r="57" spans="1:9" s="576" customFormat="1" ht="20" customHeight="1">
       <c r="A57" s="118"/>
       <c r="B57" s="137"/>
       <c r="C57" s="119"/>
@@ -26491,7 +26522,7 @@
       <c r="H57" s="410"/>
       <c r="I57" s="410"/>
     </row>
-    <row r="58" spans="1:9" s="579" customFormat="1" ht="20" customHeight="1">
+    <row r="58" spans="1:9" s="576" customFormat="1" ht="20" customHeight="1">
       <c r="A58" s="118"/>
       <c r="B58" s="137"/>
       <c r="C58" s="119"/>
@@ -27429,7 +27460,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="579" customFormat="1" ht="20" customHeight="1">
+    <row r="4" spans="1:9" s="576" customFormat="1" ht="20" customHeight="1">
       <c r="A4" s="397">
         <v>42736</v>
       </c>
@@ -27450,7 +27481,7 @@
       <c r="H4" s="398"/>
       <c r="I4" s="401"/>
     </row>
-    <row r="5" spans="1:9" s="579" customFormat="1" ht="20" customHeight="1">
+    <row r="5" spans="1:9" s="576" customFormat="1" ht="20" customHeight="1">
       <c r="A5" s="397">
         <v>42736</v>
       </c>
@@ -27471,7 +27502,7 @@
       <c r="H5" s="398"/>
       <c r="I5" s="401"/>
     </row>
-    <row r="6" spans="1:9" s="579" customFormat="1" ht="20" customHeight="1">
+    <row r="6" spans="1:9" s="576" customFormat="1" ht="20" customHeight="1">
       <c r="A6" s="397">
         <v>42736</v>
       </c>
@@ -27492,7 +27523,7 @@
       <c r="H6" s="398"/>
       <c r="I6" s="401"/>
     </row>
-    <row r="7" spans="1:9" s="579" customFormat="1" ht="20" customHeight="1">
+    <row r="7" spans="1:9" s="576" customFormat="1" ht="20" customHeight="1">
       <c r="A7" s="397">
         <v>42736</v>
       </c>
@@ -27513,7 +27544,7 @@
       <c r="H7" s="398"/>
       <c r="I7" s="401"/>
     </row>
-    <row r="8" spans="1:9" s="579" customFormat="1" ht="20" customHeight="1">
+    <row r="8" spans="1:9" s="576" customFormat="1" ht="20" customHeight="1">
       <c r="A8" s="397">
         <v>42736</v>
       </c>
@@ -27534,7 +27565,7 @@
       <c r="H8" s="398"/>
       <c r="I8" s="401"/>
     </row>
-    <row r="9" spans="1:9" s="579" customFormat="1" ht="20" customHeight="1">
+    <row r="9" spans="1:9" s="576" customFormat="1" ht="20" customHeight="1">
       <c r="A9" s="397">
         <v>42736</v>
       </c>
@@ -28653,8 +28684,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8:C11"/>
+    <sheetView showGridLines="0" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.25" customHeight="1"/>
@@ -28776,63 +28807,63 @@
         <v>355</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="20" customHeight="1">
-      <c r="A8" s="52">
+    <row r="8" spans="1:5" s="590" customFormat="1" ht="20" customHeight="1">
+      <c r="A8" s="598">
         <v>42736</v>
       </c>
-      <c r="B8" s="72"/>
-      <c r="C8" s="555" t="s">
+      <c r="B8" s="599"/>
+      <c r="C8" s="600" t="s">
         <v>320</v>
       </c>
-      <c r="D8" s="555" t="s">
+      <c r="D8" s="600" t="s">
         <v>362</v>
       </c>
-      <c r="E8" s="555" t="s">
+      <c r="E8" s="600" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="20" customHeight="1">
-      <c r="A9" s="52">
+    <row r="9" spans="1:5" s="590" customFormat="1" ht="20" customHeight="1">
+      <c r="A9" s="598">
         <v>42736</v>
       </c>
-      <c r="B9" s="72"/>
-      <c r="C9" s="555" t="s">
+      <c r="B9" s="599"/>
+      <c r="C9" s="600" t="s">
         <v>320</v>
       </c>
-      <c r="D9" s="555" t="s">
+      <c r="D9" s="600" t="s">
         <v>357</v>
       </c>
-      <c r="E9" s="555" t="s">
+      <c r="E9" s="600" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="20" customHeight="1">
-      <c r="A10" s="52">
+    <row r="10" spans="1:5" s="590" customFormat="1" ht="20" customHeight="1">
+      <c r="A10" s="598">
         <v>42736</v>
       </c>
-      <c r="B10" s="72"/>
-      <c r="C10" s="555" t="s">
+      <c r="B10" s="599"/>
+      <c r="C10" s="600" t="s">
         <v>320</v>
       </c>
-      <c r="D10" s="555" t="s">
+      <c r="D10" s="600" t="s">
         <v>358</v>
       </c>
-      <c r="E10" s="555" t="s">
+      <c r="E10" s="600" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="20" customHeight="1">
-      <c r="A11" s="52">
+    <row r="11" spans="1:5" s="590" customFormat="1" ht="20" customHeight="1">
+      <c r="A11" s="598">
         <v>42736</v>
       </c>
-      <c r="B11" s="72"/>
-      <c r="C11" s="555" t="s">
+      <c r="B11" s="599"/>
+      <c r="C11" s="600" t="s">
         <v>320</v>
       </c>
-      <c r="D11" s="555" t="s">
+      <c r="D11" s="600" t="s">
         <v>359</v>
       </c>
-      <c r="E11" s="555" t="s">
+      <c r="E11" s="600" t="s">
         <v>355</v>
       </c>
     </row>
@@ -29145,8 +29176,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:G268"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView showGridLines="0" topLeftCell="A10" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:XFD23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.25" customHeight="1"/>
@@ -29699,7 +29730,7 @@
       <c r="C29" s="555" t="s">
         <v>320</v>
       </c>
-      <c r="D29" s="587" t="s">
+      <c r="D29" s="581" t="s">
         <v>372</v>
       </c>
       <c r="E29" s="555" t="s">
@@ -29718,7 +29749,7 @@
       <c r="C30" s="555" t="s">
         <v>320</v>
       </c>
-      <c r="D30" s="587" t="s">
+      <c r="D30" s="581" t="s">
         <v>372</v>
       </c>
       <c r="E30" s="555" t="s">
@@ -32454,7 +32485,7 @@
   <dimension ref="A1:EK80"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8:C9"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.25" customHeight="1"/>
@@ -33798,10 +33829,10 @@
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
-  <dimension ref="A1:G72"/>
+  <dimension ref="A1:G71"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.25" customHeight="1"/>
@@ -34050,241 +34081,241 @@
         <v>105</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="583" customFormat="1" ht="18">
-      <c r="A14" s="520">
+    <row r="14" spans="1:6" s="590" customFormat="1" ht="18">
+      <c r="A14" s="586">
         <v>42736</v>
       </c>
-      <c r="B14" s="584"/>
-      <c r="C14" s="585" t="s">
+      <c r="B14" s="587"/>
+      <c r="C14" s="588" t="s">
         <v>320</v>
       </c>
-      <c r="D14" s="585" t="s">
+      <c r="D14" s="588" t="s">
         <v>342</v>
       </c>
-      <c r="E14" s="585" t="s">
-        <v>362</v>
-      </c>
-      <c r="F14" s="586" t="s">
+      <c r="E14" s="588" t="s">
+        <v>357</v>
+      </c>
+      <c r="F14" s="589" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="15" spans="1:6" customFormat="1" ht="18">
-      <c r="A15" s="520">
+    <row r="15" spans="1:6" s="590" customFormat="1" ht="18">
+      <c r="A15" s="586">
         <v>42736</v>
       </c>
-      <c r="B15" s="569"/>
-      <c r="C15" s="565" t="s">
+      <c r="B15" s="587"/>
+      <c r="C15" s="588" t="s">
         <v>320</v>
       </c>
-      <c r="D15" s="565" t="s">
+      <c r="D15" s="588" t="s">
         <v>342</v>
       </c>
-      <c r="E15" s="565" t="s">
+      <c r="E15" s="591" t="s">
         <v>358</v>
       </c>
-      <c r="F15" s="566" t="s">
+      <c r="F15" s="589" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="16" spans="1:6" customFormat="1" ht="18">
-      <c r="A16" s="520">
+    <row r="16" spans="1:6" s="590" customFormat="1" ht="18">
+      <c r="A16" s="586">
         <v>42736</v>
       </c>
-      <c r="B16" s="569"/>
-      <c r="C16" s="565" t="s">
+      <c r="B16" s="592"/>
+      <c r="C16" s="591" t="s">
         <v>320</v>
       </c>
-      <c r="D16" s="565" t="s">
+      <c r="D16" s="591" t="s">
+        <v>347</v>
+      </c>
+      <c r="E16" s="591" t="s">
+        <v>358</v>
+      </c>
+      <c r="F16" s="593" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" s="590" customFormat="1" ht="18">
+      <c r="A17" s="586">
+        <v>42736</v>
+      </c>
+      <c r="B17" s="592"/>
+      <c r="C17" s="591" t="s">
+        <v>320</v>
+      </c>
+      <c r="D17" s="591" t="s">
+        <v>347</v>
+      </c>
+      <c r="E17" s="591" t="s">
+        <v>357</v>
+      </c>
+      <c r="F17" s="593" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" s="590" customFormat="1" ht="18">
+      <c r="A18" s="586">
+        <v>42736</v>
+      </c>
+      <c r="B18" s="587"/>
+      <c r="C18" s="588" t="s">
+        <v>320</v>
+      </c>
+      <c r="D18" s="588" t="s">
         <v>342</v>
       </c>
-      <c r="E16" s="565" t="s">
+      <c r="E18" s="588" t="s">
+        <v>153</v>
+      </c>
+      <c r="F18" s="589" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" s="590" customFormat="1" ht="18">
+      <c r="A19" s="586">
+        <v>42736</v>
+      </c>
+      <c r="B19" s="592"/>
+      <c r="C19" s="591" t="s">
+        <v>320</v>
+      </c>
+      <c r="D19" s="591" t="s">
+        <v>347</v>
+      </c>
+      <c r="E19" s="591" t="s">
+        <v>153</v>
+      </c>
+      <c r="F19" s="593" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" s="590" customFormat="1" ht="18">
+      <c r="A20" s="586">
+        <v>42736</v>
+      </c>
+      <c r="B20" s="587"/>
+      <c r="C20" s="588" t="s">
+        <v>320</v>
+      </c>
+      <c r="D20" s="588" t="s">
+        <v>345</v>
+      </c>
+      <c r="E20" s="588" t="s">
+        <v>358</v>
+      </c>
+      <c r="F20" s="589" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" s="590" customFormat="1" ht="18">
+      <c r="A21" s="586">
+        <v>42736</v>
+      </c>
+      <c r="B21" s="587"/>
+      <c r="C21" s="588" t="s">
+        <v>320</v>
+      </c>
+      <c r="D21" s="588" t="s">
+        <v>345</v>
+      </c>
+      <c r="E21" s="588" t="s">
+        <v>359</v>
+      </c>
+      <c r="F21" s="589" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" s="590" customFormat="1" ht="18">
+      <c r="A22" s="586">
+        <v>42736</v>
+      </c>
+      <c r="B22" s="587"/>
+      <c r="C22" s="588" t="s">
+        <v>320</v>
+      </c>
+      <c r="D22" s="588" t="s">
+        <v>345</v>
+      </c>
+      <c r="E22" s="588" t="s">
         <v>357</v>
       </c>
-      <c r="F16" s="566" t="s">
+      <c r="F22" s="589" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="17" spans="1:7" customFormat="1" ht="18">
-      <c r="A17" s="520">
+    <row r="23" spans="1:7" s="590" customFormat="1" ht="18">
+      <c r="A23" s="586">
         <v>42736</v>
       </c>
-      <c r="B17" s="568"/>
-      <c r="C17" s="563" t="s">
+      <c r="B23" s="592"/>
+      <c r="C23" s="591" t="s">
         <v>320</v>
       </c>
-      <c r="D17" s="563" t="s">
-        <v>347</v>
-      </c>
-      <c r="E17" s="563" t="s">
+      <c r="D23" s="591" t="s">
+        <v>351</v>
+      </c>
+      <c r="E23" s="591" t="s">
         <v>358</v>
       </c>
-      <c r="F17" s="564" t="s">
+      <c r="F23" s="593" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="18" spans="1:7" customFormat="1" ht="18">
-      <c r="A18" s="520">
+    <row r="24" spans="1:7" s="597" customFormat="1" ht="20" customHeight="1">
+      <c r="A24" s="586">
         <v>42736</v>
       </c>
-      <c r="B18" s="568"/>
-      <c r="C18" s="563" t="s">
+      <c r="B24" s="594"/>
+      <c r="C24" s="595" t="s">
         <v>320</v>
       </c>
-      <c r="D18" s="563" t="s">
-        <v>347</v>
-      </c>
-      <c r="E18" s="563" t="s">
+      <c r="D24" s="595" t="s">
+        <v>351</v>
+      </c>
+      <c r="E24" s="595" t="s">
+        <v>359</v>
+      </c>
+      <c r="F24" s="596" t="s">
+        <v>105</v>
+      </c>
+      <c r="G24" s="590"/>
+    </row>
+    <row r="25" spans="1:7" s="597" customFormat="1" ht="20" customHeight="1">
+      <c r="A25" s="586">
+        <v>42736</v>
+      </c>
+      <c r="B25" s="594"/>
+      <c r="C25" s="595" t="s">
+        <v>320</v>
+      </c>
+      <c r="D25" s="595" t="s">
+        <v>351</v>
+      </c>
+      <c r="E25" s="595" t="s">
         <v>357</v>
       </c>
-      <c r="F18" s="564" t="s">
+      <c r="F25" s="596" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" customFormat="1" ht="18">
-      <c r="A19" s="520">
-        <v>42736</v>
-      </c>
-      <c r="B19" s="569"/>
-      <c r="C19" s="565" t="s">
-        <v>320</v>
-      </c>
-      <c r="D19" s="565" t="s">
-        <v>342</v>
-      </c>
-      <c r="E19" s="565" t="s">
-        <v>153</v>
-      </c>
-      <c r="F19" s="566" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" customFormat="1" ht="18">
-      <c r="A20" s="520">
-        <v>42736</v>
-      </c>
-      <c r="B20" s="568"/>
-      <c r="C20" s="563" t="s">
-        <v>320</v>
-      </c>
-      <c r="D20" s="563" t="s">
-        <v>347</v>
-      </c>
-      <c r="E20" s="563" t="s">
-        <v>153</v>
-      </c>
-      <c r="F20" s="564" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" customFormat="1" ht="18">
-      <c r="A21" s="520">
-        <v>42736</v>
-      </c>
-      <c r="B21" s="569"/>
-      <c r="C21" s="565" t="s">
-        <v>320</v>
-      </c>
-      <c r="D21" s="565" t="s">
-        <v>345</v>
-      </c>
-      <c r="E21" s="565" t="s">
-        <v>358</v>
-      </c>
-      <c r="F21" s="566" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" customFormat="1" ht="18">
-      <c r="A22" s="520">
-        <v>42736</v>
-      </c>
-      <c r="B22" s="569"/>
-      <c r="C22" s="565" t="s">
-        <v>320</v>
-      </c>
-      <c r="D22" s="565" t="s">
-        <v>345</v>
-      </c>
-      <c r="E22" s="565" t="s">
-        <v>359</v>
-      </c>
-      <c r="F22" s="566" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" customFormat="1" ht="18">
-      <c r="A23" s="520">
-        <v>42736</v>
-      </c>
-      <c r="B23" s="569"/>
-      <c r="C23" s="565" t="s">
-        <v>320</v>
-      </c>
-      <c r="D23" s="565" t="s">
-        <v>345</v>
-      </c>
-      <c r="E23" s="565" t="s">
-        <v>357</v>
-      </c>
-      <c r="F23" s="566" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" customFormat="1" ht="18">
-      <c r="A24" s="520">
-        <v>42736</v>
-      </c>
-      <c r="B24" s="568"/>
-      <c r="C24" s="563" t="s">
-        <v>320</v>
-      </c>
-      <c r="D24" s="563" t="s">
-        <v>351</v>
-      </c>
-      <c r="E24" s="563" t="s">
-        <v>358</v>
-      </c>
-      <c r="F24" s="564" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" s="18" customFormat="1" ht="20" customHeight="1">
-      <c r="A25" s="520">
-        <v>42736</v>
-      </c>
-      <c r="B25" s="575"/>
-      <c r="C25" s="576" t="s">
-        <v>320</v>
-      </c>
-      <c r="D25" s="576" t="s">
-        <v>351</v>
-      </c>
-      <c r="E25" s="576" t="s">
-        <v>359</v>
-      </c>
-      <c r="F25" s="577" t="s">
-        <v>105</v>
-      </c>
-      <c r="G25"/>
-    </row>
-    <row r="26" spans="1:7" s="18" customFormat="1" ht="20" customHeight="1">
+      <c r="G25" s="590"/>
+    </row>
+    <row r="26" spans="1:7" customFormat="1" ht="18">
       <c r="A26" s="520">
         <v>42736</v>
       </c>
-      <c r="B26" s="575"/>
-      <c r="C26" s="576" t="s">
-        <v>320</v>
-      </c>
-      <c r="D26" s="576" t="s">
-        <v>351</v>
-      </c>
-      <c r="E26" s="576" t="s">
-        <v>357</v>
-      </c>
-      <c r="F26" s="577" t="s">
+      <c r="B26" s="569"/>
+      <c r="C26" s="574" t="s">
+        <v>321</v>
+      </c>
+      <c r="D26" s="565" t="s">
+        <v>342</v>
+      </c>
+      <c r="E26" s="565" t="s">
+        <v>358</v>
+      </c>
+      <c r="F26" s="566" t="s">
         <v>105</v>
       </c>
-      <c r="G26"/>
     </row>
     <row r="27" spans="1:7" customFormat="1" ht="18">
       <c r="A27" s="520">
@@ -34298,7 +34329,7 @@
         <v>342</v>
       </c>
       <c r="E27" s="565" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F27" s="566" t="s">
         <v>105</v>
@@ -34308,17 +34339,17 @@
       <c r="A28" s="520">
         <v>42736</v>
       </c>
-      <c r="B28" s="569"/>
-      <c r="C28" s="574" t="s">
+      <c r="B28" s="568"/>
+      <c r="C28" s="567" t="s">
         <v>321</v>
       </c>
-      <c r="D28" s="565" t="s">
-        <v>342</v>
-      </c>
-      <c r="E28" s="565" t="s">
-        <v>357</v>
-      </c>
-      <c r="F28" s="566" t="s">
+      <c r="D28" s="563" t="s">
+        <v>347</v>
+      </c>
+      <c r="E28" s="563" t="s">
+        <v>358</v>
+      </c>
+      <c r="F28" s="564" t="s">
         <v>105</v>
       </c>
     </row>
@@ -34334,7 +34365,7 @@
         <v>347</v>
       </c>
       <c r="E29" s="563" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F29" s="564" t="s">
         <v>105</v>
@@ -34344,54 +34375,54 @@
       <c r="A30" s="520">
         <v>42736</v>
       </c>
-      <c r="B30" s="568"/>
-      <c r="C30" s="567" t="s">
+      <c r="B30" s="569"/>
+      <c r="C30" s="565" t="s">
         <v>321</v>
       </c>
-      <c r="D30" s="563" t="s">
+      <c r="D30" s="565" t="s">
+        <v>342</v>
+      </c>
+      <c r="E30" s="565" t="s">
+        <v>153</v>
+      </c>
+      <c r="F30" s="566" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" customFormat="1" ht="18">
+      <c r="A31" s="562">
+        <v>42736</v>
+      </c>
+      <c r="B31" s="568"/>
+      <c r="C31" s="563" t="s">
+        <v>321</v>
+      </c>
+      <c r="D31" s="563" t="s">
         <v>347</v>
       </c>
-      <c r="E30" s="563" t="s">
-        <v>357</v>
-      </c>
-      <c r="F30" s="564" t="s">
+      <c r="E31" s="563" t="s">
+        <v>153</v>
+      </c>
+      <c r="F31" s="564" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" customFormat="1" ht="18">
+      <c r="A32" s="520">
+        <v>42736</v>
+      </c>
+      <c r="B32" s="569"/>
+      <c r="C32" s="565" t="s">
+        <v>321</v>
+      </c>
+      <c r="D32" s="565" t="s">
+        <v>345</v>
+      </c>
+      <c r="E32" s="565" t="s">
+        <v>358</v>
+      </c>
+      <c r="F32" s="566" t="s">
         <v>105</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" customFormat="1" ht="18">
-      <c r="A31" s="520">
-        <v>42736</v>
-      </c>
-      <c r="B31" s="569"/>
-      <c r="C31" s="565" t="s">
-        <v>321</v>
-      </c>
-      <c r="D31" s="565" t="s">
-        <v>342</v>
-      </c>
-      <c r="E31" s="565" t="s">
-        <v>153</v>
-      </c>
-      <c r="F31" s="566" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" customFormat="1" ht="18">
-      <c r="A32" s="562">
-        <v>42736</v>
-      </c>
-      <c r="B32" s="568"/>
-      <c r="C32" s="563" t="s">
-        <v>321</v>
-      </c>
-      <c r="D32" s="563" t="s">
-        <v>347</v>
-      </c>
-      <c r="E32" s="563" t="s">
-        <v>153</v>
-      </c>
-      <c r="F32" s="564" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="33" spans="1:6" customFormat="1" ht="18">
@@ -34406,7 +34437,7 @@
         <v>345</v>
       </c>
       <c r="E33" s="565" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="F33" s="566" t="s">
         <v>105</v>
@@ -34424,7 +34455,7 @@
         <v>345</v>
       </c>
       <c r="E34" s="565" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="F34" s="566" t="s">
         <v>105</v>
@@ -34439,10 +34470,10 @@
         <v>321</v>
       </c>
       <c r="D35" s="565" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="E35" s="565" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F35" s="566" t="s">
         <v>105</v>
@@ -34460,7 +34491,7 @@
         <v>351</v>
       </c>
       <c r="E36" s="565" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="F36" s="566" t="s">
         <v>105</v>
@@ -34478,7 +34509,7 @@
         <v>351</v>
       </c>
       <c r="E37" s="565" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="F37" s="566" t="s">
         <v>105</v>
@@ -34489,14 +34520,14 @@
         <v>42736</v>
       </c>
       <c r="B38" s="569"/>
-      <c r="C38" s="565" t="s">
-        <v>321</v>
+      <c r="C38" s="574" t="s">
+        <v>322</v>
       </c>
       <c r="D38" s="565" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="E38" s="565" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F38" s="566" t="s">
         <v>105</v>
@@ -34514,27 +34545,27 @@
         <v>342</v>
       </c>
       <c r="E39" s="565" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F39" s="566" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="40" spans="1:6" customFormat="1" ht="18">
-      <c r="A40" s="520">
+      <c r="A40" s="562">
         <v>42736</v>
       </c>
-      <c r="B40" s="569"/>
-      <c r="C40" s="574" t="s">
+      <c r="B40" s="568"/>
+      <c r="C40" s="567" t="s">
         <v>322</v>
       </c>
-      <c r="D40" s="565" t="s">
-        <v>342</v>
-      </c>
-      <c r="E40" s="565" t="s">
-        <v>357</v>
-      </c>
-      <c r="F40" s="566" t="s">
+      <c r="D40" s="563" t="s">
+        <v>347</v>
+      </c>
+      <c r="E40" s="563" t="s">
+        <v>358</v>
+      </c>
+      <c r="F40" s="564" t="s">
         <v>105</v>
       </c>
     </row>
@@ -34550,64 +34581,64 @@
         <v>347</v>
       </c>
       <c r="E41" s="563" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F41" s="564" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="42" spans="1:6" customFormat="1" ht="18">
-      <c r="A42" s="562">
+      <c r="A42" s="520">
         <v>42736</v>
       </c>
-      <c r="B42" s="568"/>
-      <c r="C42" s="567" t="s">
+      <c r="B42" s="569"/>
+      <c r="C42" s="565" t="s">
         <v>322</v>
       </c>
-      <c r="D42" s="563" t="s">
+      <c r="D42" s="565" t="s">
+        <v>342</v>
+      </c>
+      <c r="E42" s="565" t="s">
+        <v>153</v>
+      </c>
+      <c r="F42" s="566" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" customFormat="1" ht="18">
+      <c r="A43" s="562">
+        <v>42736</v>
+      </c>
+      <c r="B43" s="568"/>
+      <c r="C43" s="563" t="s">
+        <v>322</v>
+      </c>
+      <c r="D43" s="563" t="s">
         <v>347</v>
       </c>
-      <c r="E42" s="563" t="s">
-        <v>357</v>
-      </c>
-      <c r="F42" s="564" t="s">
+      <c r="E43" s="563" t="s">
+        <v>153</v>
+      </c>
+      <c r="F43" s="564" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" customFormat="1" ht="18">
+      <c r="A44" s="520">
+        <v>42736</v>
+      </c>
+      <c r="B44" s="569"/>
+      <c r="C44" s="565" t="s">
+        <v>322</v>
+      </c>
+      <c r="D44" s="565" t="s">
+        <v>345</v>
+      </c>
+      <c r="E44" s="565" t="s">
+        <v>358</v>
+      </c>
+      <c r="F44" s="566" t="s">
         <v>105</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" customFormat="1" ht="18">
-      <c r="A43" s="520">
-        <v>42736</v>
-      </c>
-      <c r="B43" s="569"/>
-      <c r="C43" s="565" t="s">
-        <v>322</v>
-      </c>
-      <c r="D43" s="565" t="s">
-        <v>342</v>
-      </c>
-      <c r="E43" s="565" t="s">
-        <v>153</v>
-      </c>
-      <c r="F43" s="566" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" customFormat="1" ht="18">
-      <c r="A44" s="562">
-        <v>42736</v>
-      </c>
-      <c r="B44" s="568"/>
-      <c r="C44" s="563" t="s">
-        <v>322</v>
-      </c>
-      <c r="D44" s="563" t="s">
-        <v>347</v>
-      </c>
-      <c r="E44" s="563" t="s">
-        <v>153</v>
-      </c>
-      <c r="F44" s="564" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="45" spans="1:6" customFormat="1" ht="18">
@@ -34622,7 +34653,7 @@
         <v>345</v>
       </c>
       <c r="E45" s="565" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="F45" s="566" t="s">
         <v>105</v>
@@ -34640,27 +34671,27 @@
         <v>345</v>
       </c>
       <c r="E46" s="565" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="F46" s="566" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="47" spans="1:6" customFormat="1" ht="18">
-      <c r="A47" s="520">
+      <c r="A47" s="562">
         <v>42736</v>
       </c>
-      <c r="B47" s="569"/>
-      <c r="C47" s="565" t="s">
+      <c r="B47" s="568"/>
+      <c r="C47" s="563" t="s">
         <v>322</v>
       </c>
-      <c r="D47" s="565" t="s">
-        <v>345</v>
-      </c>
-      <c r="E47" s="565" t="s">
-        <v>357</v>
-      </c>
-      <c r="F47" s="566" t="s">
+      <c r="D47" s="563" t="s">
+        <v>351</v>
+      </c>
+      <c r="E47" s="563" t="s">
+        <v>358</v>
+      </c>
+      <c r="F47" s="564" t="s">
         <v>105</v>
       </c>
     </row>
@@ -34676,7 +34707,7 @@
         <v>351</v>
       </c>
       <c r="E48" s="563" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="F48" s="564" t="s">
         <v>105</v>
@@ -34694,27 +34725,27 @@
         <v>351</v>
       </c>
       <c r="E49" s="563" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="F49" s="564" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="50" spans="1:6" customFormat="1" ht="18">
-      <c r="A50" s="562">
+      <c r="A50" s="520">
         <v>42736</v>
       </c>
-      <c r="B50" s="568"/>
-      <c r="C50" s="563" t="s">
-        <v>322</v>
-      </c>
-      <c r="D50" s="563" t="s">
-        <v>351</v>
-      </c>
-      <c r="E50" s="563" t="s">
-        <v>357</v>
-      </c>
-      <c r="F50" s="564" t="s">
+      <c r="B50" s="569"/>
+      <c r="C50" s="574" t="s">
+        <v>323</v>
+      </c>
+      <c r="D50" s="565" t="s">
+        <v>342</v>
+      </c>
+      <c r="E50" s="565" t="s">
+        <v>358</v>
+      </c>
+      <c r="F50" s="566" t="s">
         <v>105</v>
       </c>
     </row>
@@ -34730,27 +34761,27 @@
         <v>342</v>
       </c>
       <c r="E51" s="565" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F51" s="566" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="52" spans="1:6" customFormat="1" ht="18">
-      <c r="A52" s="520">
+      <c r="A52" s="562">
         <v>42736</v>
       </c>
-      <c r="B52" s="569"/>
-      <c r="C52" s="574" t="s">
+      <c r="B52" s="568"/>
+      <c r="C52" s="567" t="s">
         <v>323</v>
       </c>
-      <c r="D52" s="565" t="s">
-        <v>342</v>
-      </c>
-      <c r="E52" s="565" t="s">
-        <v>357</v>
-      </c>
-      <c r="F52" s="566" t="s">
+      <c r="D52" s="563" t="s">
+        <v>347</v>
+      </c>
+      <c r="E52" s="563" t="s">
+        <v>358</v>
+      </c>
+      <c r="F52" s="564" t="s">
         <v>105</v>
       </c>
     </row>
@@ -34766,64 +34797,64 @@
         <v>347</v>
       </c>
       <c r="E53" s="563" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F53" s="564" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="54" spans="1:6" customFormat="1" ht="18">
-      <c r="A54" s="562">
+      <c r="A54" s="520">
         <v>42736</v>
       </c>
-      <c r="B54" s="568"/>
-      <c r="C54" s="567" t="s">
+      <c r="B54" s="569"/>
+      <c r="C54" s="565" t="s">
         <v>323</v>
       </c>
-      <c r="D54" s="563" t="s">
+      <c r="D54" s="565" t="s">
+        <v>342</v>
+      </c>
+      <c r="E54" s="565" t="s">
+        <v>153</v>
+      </c>
+      <c r="F54" s="566" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" customFormat="1" ht="18">
+      <c r="A55" s="562">
+        <v>42736</v>
+      </c>
+      <c r="B55" s="568"/>
+      <c r="C55" s="563" t="s">
+        <v>323</v>
+      </c>
+      <c r="D55" s="563" t="s">
         <v>347</v>
       </c>
-      <c r="E54" s="563" t="s">
-        <v>357</v>
-      </c>
-      <c r="F54" s="564" t="s">
+      <c r="E55" s="563" t="s">
+        <v>153</v>
+      </c>
+      <c r="F55" s="564" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" customFormat="1" ht="18">
+      <c r="A56" s="520">
+        <v>42736</v>
+      </c>
+      <c r="B56" s="569"/>
+      <c r="C56" s="565" t="s">
+        <v>323</v>
+      </c>
+      <c r="D56" s="565" t="s">
+        <v>345</v>
+      </c>
+      <c r="E56" s="563" t="s">
+        <v>358</v>
+      </c>
+      <c r="F56" s="566" t="s">
         <v>105</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" customFormat="1" ht="18">
-      <c r="A55" s="520">
-        <v>42736</v>
-      </c>
-      <c r="B55" s="569"/>
-      <c r="C55" s="565" t="s">
-        <v>323</v>
-      </c>
-      <c r="D55" s="565" t="s">
-        <v>342</v>
-      </c>
-      <c r="E55" s="565" t="s">
-        <v>153</v>
-      </c>
-      <c r="F55" s="566" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" customFormat="1" ht="18">
-      <c r="A56" s="562">
-        <v>42736</v>
-      </c>
-      <c r="B56" s="568"/>
-      <c r="C56" s="563" t="s">
-        <v>323</v>
-      </c>
-      <c r="D56" s="563" t="s">
-        <v>347</v>
-      </c>
-      <c r="E56" s="563" t="s">
-        <v>153</v>
-      </c>
-      <c r="F56" s="564" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="57" spans="1:6" customFormat="1" ht="18">
@@ -34838,7 +34869,7 @@
         <v>345</v>
       </c>
       <c r="E57" s="563" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="F57" s="566" t="s">
         <v>105</v>
@@ -34856,7 +34887,7 @@
         <v>345</v>
       </c>
       <c r="E58" s="563" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="F58" s="566" t="s">
         <v>105</v>
@@ -34871,10 +34902,10 @@
         <v>323</v>
       </c>
       <c r="D59" s="565" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="E59" s="563" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F59" s="566" t="s">
         <v>105</v>
@@ -34892,7 +34923,7 @@
         <v>351</v>
       </c>
       <c r="E60" s="563" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="F60" s="566" t="s">
         <v>105</v>
@@ -34910,7 +34941,7 @@
         <v>351</v>
       </c>
       <c r="E61" s="563" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="F61" s="566" t="s">
         <v>105</v>
@@ -34921,14 +34952,14 @@
         <v>42736</v>
       </c>
       <c r="B62" s="569"/>
-      <c r="C62" s="565" t="s">
-        <v>323</v>
+      <c r="C62" s="574" t="s">
+        <v>324</v>
       </c>
       <c r="D62" s="565" t="s">
-        <v>351</v>
-      </c>
-      <c r="E62" s="563" t="s">
-        <v>357</v>
+        <v>342</v>
+      </c>
+      <c r="E62" s="565" t="s">
+        <v>356</v>
       </c>
       <c r="F62" s="566" t="s">
         <v>105</v>
@@ -34946,7 +34977,7 @@
         <v>342</v>
       </c>
       <c r="E63" s="565" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="F63" s="566" t="s">
         <v>105</v>
@@ -34961,10 +34992,10 @@
         <v>324</v>
       </c>
       <c r="D64" s="565" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="E64" s="565" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F64" s="566" t="s">
         <v>105</v>
@@ -34982,7 +35013,7 @@
         <v>347</v>
       </c>
       <c r="E65" s="565" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="F65" s="566" t="s">
         <v>105</v>
@@ -34993,53 +35024,53 @@
         <v>42736</v>
       </c>
       <c r="B66" s="569"/>
-      <c r="C66" s="574" t="s">
+      <c r="C66" s="565" t="s">
         <v>324</v>
       </c>
       <c r="D66" s="565" t="s">
+        <v>342</v>
+      </c>
+      <c r="E66" s="565" t="s">
+        <v>153</v>
+      </c>
+      <c r="F66" s="566" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" customFormat="1" ht="18">
+      <c r="A67" s="562">
+        <v>42736</v>
+      </c>
+      <c r="B67" s="568"/>
+      <c r="C67" s="563" t="s">
+        <v>324</v>
+      </c>
+      <c r="D67" s="563" t="s">
         <v>347</v>
       </c>
-      <c r="E66" s="565" t="s">
-        <v>357</v>
-      </c>
-      <c r="F66" s="566" t="s">
+      <c r="E67" s="563" t="s">
+        <v>153</v>
+      </c>
+      <c r="F67" s="564" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" customFormat="1" ht="18">
+      <c r="A68" s="520">
+        <v>42736</v>
+      </c>
+      <c r="B68" s="569"/>
+      <c r="C68" s="565" t="s">
+        <v>324</v>
+      </c>
+      <c r="D68" s="565" t="s">
+        <v>345</v>
+      </c>
+      <c r="E68" s="565" t="s">
+        <v>356</v>
+      </c>
+      <c r="F68" s="566" t="s">
         <v>105</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" customFormat="1" ht="18">
-      <c r="A67" s="520">
-        <v>42736</v>
-      </c>
-      <c r="B67" s="569"/>
-      <c r="C67" s="565" t="s">
-        <v>324</v>
-      </c>
-      <c r="D67" s="565" t="s">
-        <v>342</v>
-      </c>
-      <c r="E67" s="565" t="s">
-        <v>153</v>
-      </c>
-      <c r="F67" s="566" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" customFormat="1" ht="18">
-      <c r="A68" s="562">
-        <v>42736</v>
-      </c>
-      <c r="B68" s="568"/>
-      <c r="C68" s="563" t="s">
-        <v>324</v>
-      </c>
-      <c r="D68" s="563" t="s">
-        <v>347</v>
-      </c>
-      <c r="E68" s="563" t="s">
-        <v>153</v>
-      </c>
-      <c r="F68" s="564" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="69" spans="1:6" customFormat="1" ht="18">
@@ -35054,27 +35085,27 @@
         <v>345</v>
       </c>
       <c r="E69" s="565" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="F69" s="566" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="70" spans="1:6" customFormat="1" ht="18">
-      <c r="A70" s="520">
+      <c r="A70" s="562">
         <v>42736</v>
       </c>
-      <c r="B70" s="569"/>
-      <c r="C70" s="565" t="s">
+      <c r="B70" s="568"/>
+      <c r="C70" s="563" t="s">
         <v>324</v>
       </c>
-      <c r="D70" s="565" t="s">
-        <v>345</v>
+      <c r="D70" s="563" t="s">
+        <v>351</v>
       </c>
       <c r="E70" s="565" t="s">
-        <v>357</v>
-      </c>
-      <c r="F70" s="566" t="s">
+        <v>356</v>
+      </c>
+      <c r="F70" s="564" t="s">
         <v>105</v>
       </c>
     </row>
@@ -35089,28 +35120,10 @@
       <c r="D71" s="563" t="s">
         <v>351</v>
       </c>
-      <c r="E71" s="565" t="s">
-        <v>356</v>
+      <c r="E71" s="575" t="s">
+        <v>357</v>
       </c>
       <c r="F71" s="564" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" customFormat="1" ht="18">
-      <c r="A72" s="562">
-        <v>42736</v>
-      </c>
-      <c r="B72" s="568"/>
-      <c r="C72" s="563" t="s">
-        <v>324</v>
-      </c>
-      <c r="D72" s="563" t="s">
-        <v>351</v>
-      </c>
-      <c r="E72" s="578" t="s">
-        <v>357</v>
-      </c>
-      <c r="F72" s="564" t="s">
         <v>105</v>
       </c>
     </row>
@@ -35128,10 +35141,10 @@
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C46E332-1601-DB46-9E37-4B0D4219E272}">
-  <dimension ref="A1:K49"/>
+  <dimension ref="A1:K51"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13"/>
@@ -35337,52 +35350,49 @@
       </c>
       <c r="I8" s="555"/>
     </row>
-    <row r="9" spans="1:11" s="583" customFormat="1" ht="18">
-      <c r="A9" s="581">
+    <row r="9" spans="1:11" s="580" customFormat="1" ht="18">
+      <c r="A9" s="578">
         <v>42736</v>
       </c>
-      <c r="B9" s="581"/>
-      <c r="C9" s="582" t="s">
+      <c r="B9" s="578"/>
+      <c r="C9" s="579" t="s">
         <v>362</v>
       </c>
       <c r="D9" s="300"/>
-      <c r="E9" s="582" t="s">
+      <c r="E9" s="579" t="s">
         <v>320</v>
       </c>
-      <c r="F9" s="582" t="s">
+      <c r="F9" s="579" t="s">
         <v>362</v>
       </c>
-      <c r="G9" s="582" t="s">
+      <c r="G9" s="579" t="s">
         <v>71</v>
       </c>
-      <c r="H9" s="582" t="s">
+      <c r="H9" s="579" t="s">
         <v>71</v>
       </c>
-      <c r="I9" s="582"/>
-    </row>
-    <row r="10" spans="1:11" ht="18">
-      <c r="A10" s="59">
+      <c r="I9" s="579"/>
+    </row>
+    <row r="10" spans="1:11" s="585" customFormat="1" ht="18">
+      <c r="A10" s="273">
         <v>42736</v>
       </c>
-      <c r="B10" s="59"/>
-      <c r="C10" s="555" t="s">
-        <v>362</v>
-      </c>
-      <c r="D10" s="75"/>
-      <c r="E10" s="555" t="s">
-        <v>321</v>
-      </c>
-      <c r="F10" s="555" t="s">
-        <v>362</v>
-      </c>
-      <c r="G10" s="555" t="s">
+      <c r="B10" s="273"/>
+      <c r="C10" s="582" t="s">
+        <v>360</v>
+      </c>
+      <c r="D10" s="258"/>
+      <c r="E10" s="579" t="s">
+        <v>320</v>
+      </c>
+      <c r="F10" s="582" t="s">
+        <v>358</v>
+      </c>
+      <c r="G10" s="582" t="s">
         <v>71</v>
       </c>
-      <c r="H10" s="555" t="s">
+      <c r="H10" s="582" t="s">
         <v>71</v>
-      </c>
-      <c r="I10" s="555" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="18">
@@ -35391,14 +35401,14 @@
       </c>
       <c r="B11" s="59"/>
       <c r="C11" s="555" t="s">
-        <v>360</v>
+        <v>76</v>
       </c>
       <c r="D11" s="75"/>
       <c r="E11" s="555" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F11" s="555" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="G11" s="555" t="s">
         <v>71</v>
@@ -35413,20 +35423,23 @@
       </c>
       <c r="B12" s="59"/>
       <c r="C12" s="555" t="s">
-        <v>76</v>
+        <v>362</v>
       </c>
       <c r="D12" s="75"/>
       <c r="E12" s="555" t="s">
         <v>321</v>
       </c>
       <c r="F12" s="555" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="G12" s="555" t="s">
         <v>71</v>
       </c>
       <c r="H12" s="555" t="s">
         <v>71</v>
+      </c>
+      <c r="I12" s="555" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="18">
@@ -35435,14 +35448,14 @@
       </c>
       <c r="B13" s="59"/>
       <c r="C13" s="555" t="s">
-        <v>153</v>
+        <v>360</v>
       </c>
       <c r="D13" s="75"/>
       <c r="E13" s="555" t="s">
         <v>321</v>
       </c>
       <c r="F13" s="555" t="s">
-        <v>153</v>
+        <v>358</v>
       </c>
       <c r="G13" s="555" t="s">
         <v>71</v>
@@ -35457,23 +35470,20 @@
       </c>
       <c r="B14" s="59"/>
       <c r="C14" s="555" t="s">
-        <v>362</v>
+        <v>76</v>
       </c>
       <c r="D14" s="75"/>
       <c r="E14" s="555" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F14" s="555" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="G14" s="555" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H14" s="555" t="s">
         <v>71</v>
-      </c>
-      <c r="I14" s="555" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="18">
@@ -35482,17 +35492,17 @@
       </c>
       <c r="B15" s="59"/>
       <c r="C15" s="555" t="s">
-        <v>360</v>
+        <v>153</v>
       </c>
       <c r="D15" s="75"/>
       <c r="E15" s="555" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F15" s="555" t="s">
-        <v>358</v>
+        <v>153</v>
       </c>
       <c r="G15" s="555" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H15" s="555" t="s">
         <v>71</v>
@@ -35504,20 +35514,23 @@
       </c>
       <c r="B16" s="59"/>
       <c r="C16" s="555" t="s">
-        <v>76</v>
+        <v>362</v>
       </c>
       <c r="D16" s="75"/>
       <c r="E16" s="555" t="s">
         <v>322</v>
       </c>
       <c r="F16" s="555" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="G16" s="555" t="s">
         <v>72</v>
       </c>
       <c r="H16" s="555" t="s">
         <v>71</v>
+      </c>
+      <c r="I16" s="555" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="18">
@@ -35526,14 +35539,14 @@
       </c>
       <c r="B17" s="59"/>
       <c r="C17" s="555" t="s">
-        <v>153</v>
+        <v>360</v>
       </c>
       <c r="D17" s="75"/>
       <c r="E17" s="555" t="s">
         <v>322</v>
       </c>
       <c r="F17" s="555" t="s">
-        <v>153</v>
+        <v>358</v>
       </c>
       <c r="G17" s="555" t="s">
         <v>72</v>
@@ -35548,23 +35561,20 @@
       </c>
       <c r="B18" s="59"/>
       <c r="C18" s="555" t="s">
-        <v>362</v>
+        <v>76</v>
       </c>
       <c r="D18" s="75"/>
       <c r="E18" s="555" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F18" s="555" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="G18" s="555" t="s">
         <v>72</v>
       </c>
       <c r="H18" s="555" t="s">
         <v>71</v>
-      </c>
-      <c r="I18" s="555" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="18">
@@ -35573,14 +35583,14 @@
       </c>
       <c r="B19" s="59"/>
       <c r="C19" s="555" t="s">
-        <v>360</v>
+        <v>153</v>
       </c>
       <c r="D19" s="75"/>
       <c r="E19" s="555" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F19" s="555" t="s">
-        <v>358</v>
+        <v>153</v>
       </c>
       <c r="G19" s="555" t="s">
         <v>72</v>
@@ -35595,20 +35605,23 @@
       </c>
       <c r="B20" s="59"/>
       <c r="C20" s="555" t="s">
-        <v>76</v>
+        <v>362</v>
       </c>
       <c r="D20" s="75"/>
       <c r="E20" s="555" t="s">
         <v>323</v>
       </c>
       <c r="F20" s="555" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="G20" s="555" t="s">
         <v>72</v>
       </c>
       <c r="H20" s="555" t="s">
         <v>71</v>
+      </c>
+      <c r="I20" s="555" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="18">
@@ -35617,14 +35630,14 @@
       </c>
       <c r="B21" s="59"/>
       <c r="C21" s="555" t="s">
-        <v>153</v>
+        <v>360</v>
       </c>
       <c r="D21" s="75"/>
       <c r="E21" s="555" t="s">
         <v>323</v>
       </c>
       <c r="F21" s="555" t="s">
-        <v>153</v>
+        <v>358</v>
       </c>
       <c r="G21" s="555" t="s">
         <v>72</v>
@@ -35633,46 +35646,68 @@
         <v>71</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="59"/>
+    <row r="22" spans="1:9" ht="18">
+      <c r="A22" s="59">
+        <v>42736</v>
+      </c>
       <c r="B22" s="59"/>
-      <c r="C22" s="75"/>
+      <c r="C22" s="555" t="s">
+        <v>76</v>
+      </c>
       <c r="D22" s="75"/>
-      <c r="E22" s="60"/>
-      <c r="F22" s="60"/>
-      <c r="G22" s="75"/>
-      <c r="H22" s="60"/>
-      <c r="I22" s="17"/>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="59"/>
+      <c r="E22" s="555" t="s">
+        <v>323</v>
+      </c>
+      <c r="F22" s="555" t="s">
+        <v>359</v>
+      </c>
+      <c r="G22" s="555" t="s">
+        <v>72</v>
+      </c>
+      <c r="H22" s="555" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="18">
+      <c r="A23" s="59">
+        <v>42736</v>
+      </c>
       <c r="B23" s="59"/>
-      <c r="C23" s="75"/>
+      <c r="C23" s="555" t="s">
+        <v>153</v>
+      </c>
       <c r="D23" s="75"/>
-      <c r="E23" s="57"/>
-      <c r="F23" s="73"/>
-      <c r="G23" s="112"/>
-      <c r="H23" s="60"/>
-      <c r="I23" s="17"/>
+      <c r="E23" s="555" t="s">
+        <v>323</v>
+      </c>
+      <c r="F23" s="555" t="s">
+        <v>153</v>
+      </c>
+      <c r="G23" s="555" t="s">
+        <v>72</v>
+      </c>
+      <c r="H23" s="555" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="59"/>
       <c r="B24" s="59"/>
       <c r="C24" s="75"/>
       <c r="D24" s="75"/>
-      <c r="E24" s="57"/>
-      <c r="F24" s="73"/>
-      <c r="G24" s="112"/>
+      <c r="E24" s="60"/>
+      <c r="F24" s="60"/>
+      <c r="G24" s="75"/>
       <c r="H24" s="60"/>
       <c r="I24" s="17"/>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="59"/>
       <c r="B25" s="59"/>
-      <c r="C25" s="105"/>
-      <c r="D25" s="105"/>
-      <c r="E25" s="515"/>
-      <c r="F25" s="338"/>
+      <c r="C25" s="75"/>
+      <c r="D25" s="75"/>
+      <c r="E25" s="57"/>
+      <c r="F25" s="73"/>
       <c r="G25" s="112"/>
       <c r="H25" s="60"/>
       <c r="I25" s="17"/>
@@ -35680,10 +35715,10 @@
     <row r="26" spans="1:9">
       <c r="A26" s="59"/>
       <c r="B26" s="59"/>
-      <c r="C26" s="105"/>
-      <c r="D26" s="105"/>
-      <c r="E26" s="515"/>
-      <c r="F26" s="338"/>
+      <c r="C26" s="75"/>
+      <c r="D26" s="75"/>
+      <c r="E26" s="57"/>
+      <c r="F26" s="73"/>
       <c r="G26" s="112"/>
       <c r="H26" s="60"/>
       <c r="I26" s="17"/>
@@ -35757,11 +35792,11 @@
     <row r="33" spans="1:9">
       <c r="A33" s="59"/>
       <c r="B33" s="59"/>
-      <c r="C33" s="75"/>
-      <c r="D33" s="75"/>
-      <c r="E33" s="60"/>
-      <c r="F33" s="60"/>
-      <c r="G33" s="422"/>
+      <c r="C33" s="105"/>
+      <c r="D33" s="105"/>
+      <c r="E33" s="515"/>
+      <c r="F33" s="338"/>
+      <c r="G33" s="112"/>
       <c r="H33" s="60"/>
       <c r="I33" s="17"/>
     </row>
@@ -35770,20 +35805,20 @@
       <c r="B34" s="59"/>
       <c r="C34" s="105"/>
       <c r="D34" s="105"/>
-      <c r="E34" s="60"/>
-      <c r="F34" s="60"/>
-      <c r="G34" s="105"/>
+      <c r="E34" s="515"/>
+      <c r="F34" s="338"/>
+      <c r="G34" s="112"/>
       <c r="H34" s="60"/>
       <c r="I34" s="17"/>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="59"/>
       <c r="B35" s="59"/>
-      <c r="C35" s="105"/>
-      <c r="D35" s="105"/>
+      <c r="C35" s="75"/>
+      <c r="D35" s="75"/>
       <c r="E35" s="60"/>
       <c r="F35" s="60"/>
-      <c r="G35" s="105"/>
+      <c r="G35" s="422"/>
       <c r="H35" s="60"/>
       <c r="I35" s="17"/>
     </row>
@@ -35817,7 +35852,7 @@
       <c r="E38" s="60"/>
       <c r="F38" s="60"/>
       <c r="G38" s="105"/>
-      <c r="H38" s="103"/>
+      <c r="H38" s="60"/>
       <c r="I38" s="17"/>
     </row>
     <row r="39" spans="1:9">
@@ -35828,7 +35863,7 @@
       <c r="E39" s="60"/>
       <c r="F39" s="60"/>
       <c r="G39" s="105"/>
-      <c r="H39" s="103"/>
+      <c r="H39" s="60"/>
       <c r="I39" s="17"/>
     </row>
     <row r="40" spans="1:9">
@@ -35898,8 +35933,8 @@
       <c r="I45" s="17"/>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="58"/>
-      <c r="B46" s="58"/>
+      <c r="A46" s="59"/>
+      <c r="B46" s="59"/>
       <c r="C46" s="105"/>
       <c r="D46" s="105"/>
       <c r="E46" s="60"/>
@@ -35909,8 +35944,8 @@
       <c r="I46" s="17"/>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="58"/>
-      <c r="B47" s="58"/>
+      <c r="A47" s="59"/>
+      <c r="B47" s="59"/>
       <c r="C47" s="105"/>
       <c r="D47" s="105"/>
       <c r="E47" s="60"/>
@@ -35920,26 +35955,48 @@
       <c r="I47" s="17"/>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="63"/>
-      <c r="B48" s="63"/>
-      <c r="C48" s="516"/>
-      <c r="D48" s="516"/>
-      <c r="E48" s="77"/>
-      <c r="F48" s="77"/>
-      <c r="G48" s="516"/>
-      <c r="H48" s="106"/>
+      <c r="A48" s="58"/>
+      <c r="B48" s="58"/>
+      <c r="C48" s="105"/>
+      <c r="D48" s="105"/>
+      <c r="E48" s="60"/>
+      <c r="F48" s="60"/>
+      <c r="G48" s="105"/>
+      <c r="H48" s="103"/>
       <c r="I48" s="17"/>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="17"/>
-      <c r="B49" s="17"/>
-      <c r="C49" s="17"/>
-      <c r="D49" s="17"/>
-      <c r="E49" s="17"/>
-      <c r="F49" s="17"/>
-      <c r="G49" s="17"/>
-      <c r="H49" s="17"/>
+      <c r="A49" s="58"/>
+      <c r="B49" s="58"/>
+      <c r="C49" s="105"/>
+      <c r="D49" s="105"/>
+      <c r="E49" s="60"/>
+      <c r="F49" s="60"/>
+      <c r="G49" s="105"/>
+      <c r="H49" s="103"/>
       <c r="I49" s="17"/>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" s="63"/>
+      <c r="B50" s="63"/>
+      <c r="C50" s="516"/>
+      <c r="D50" s="516"/>
+      <c r="E50" s="77"/>
+      <c r="F50" s="77"/>
+      <c r="G50" s="516"/>
+      <c r="H50" s="106"/>
+      <c r="I50" s="17"/>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" s="17"/>
+      <c r="B51" s="17"/>
+      <c r="C51" s="17"/>
+      <c r="D51" s="17"/>
+      <c r="E51" s="17"/>
+      <c r="F51" s="17"/>
+      <c r="G51" s="17"/>
+      <c r="H51" s="17"/>
+      <c r="I51" s="17"/>
     </row>
   </sheetData>
   <phoneticPr fontId="38" type="noConversion"/>
@@ -35954,7 +36011,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
@@ -36559,8 +36616,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:IO188"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
@@ -36772,7 +36829,7 @@
       <c r="H6" s="54"/>
       <c r="I6" s="72"/>
       <c r="J6" s="72"/>
-      <c r="K6" s="582" t="s">
+      <c r="K6" s="579" t="s">
         <v>318</v>
       </c>
       <c r="L6" s="72"/>
@@ -42137,7 +42194,7 @@
       </c>
       <c r="F4" s="60"/>
       <c r="G4" s="75"/>
-      <c r="H4" s="587" t="s">
+      <c r="H4" s="581" t="s">
         <v>373</v>
       </c>
       <c r="I4" s="60"/>
@@ -42168,7 +42225,7 @@
       </c>
       <c r="F5" s="60"/>
       <c r="G5" s="75"/>
-      <c r="H5" s="587" t="s">
+      <c r="H5" s="581" t="s">
         <v>374</v>
       </c>
       <c r="I5" s="60"/>

--- a/src/main/resources/uk/gov/hmcts/ccd/test_definitions/excel/Access_Control_Definition_J1.xlsx
+++ b/src/main/resources/uk/gov/hmcts/ccd/test_definitions/excel/Access_Control_Definition_J1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashleynoronha/code/ccd/ccd-test-definitions/src/main/resources/uk/gov/hmcts/ccd/test_definitions/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F06C6BD-E92C-0546-85AA-8A530BBC7B09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61A26CEE-A437-4740-8ECF-4E66918D3348}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28800" yWindow="4060" windowWidth="28800" windowHeight="16560" firstSheet="18" activeTab="24" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="40" yWindow="480" windowWidth="38060" windowHeight="19140" firstSheet="16" activeTab="24" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Jurisdiction" sheetId="1" r:id="rId1"/>
@@ -39,9 +39,10 @@
     <sheet name="AuthorisationCaseEvent" sheetId="17" r:id="rId24"/>
     <sheet name="AuthorisationCaseState" sheetId="18" r:id="rId25"/>
     <sheet name="RoleToAccessProfiles" sheetId="27" r:id="rId26"/>
+    <sheet name="SearchAlias" sheetId="28" r:id="rId27"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId27"/>
+    <externalReference r:id="rId28"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">CaseEvent!$A$19:$V$19</definedName>
@@ -69,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2495" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2527" uniqueCount="379">
   <si>
     <t>Jurisdiction</t>
   </si>
@@ -1272,6 +1273,18 @@
   <si>
     <t>baseLocation</t>
   </si>
+  <si>
+    <t>SearchAlias</t>
+  </si>
+  <si>
+    <t>Unique alias id for a case field of a case type</t>
+  </si>
+  <si>
+    <t>This is just the CaseField ID for top level fields, or object notation pointing to a complex type field e.g. applicantAddress.AddressLine1</t>
+  </si>
+  <si>
+    <t>SearchAliasID</t>
+  </si>
 </sst>
 </file>
 
@@ -1283,7 +1296,7 @@
     <numFmt numFmtId="166" formatCode="dd&quot;/&quot;mm&quot;/&quot;yyyy"/>
     <numFmt numFmtId="167" formatCode="dd/mm/yy"/>
   </numFmts>
-  <fonts count="73">
+  <fonts count="75">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -1739,8 +1752,18 @@
       <name val="Monaco"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="23">
+  <fills count="24">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1871,6 +1894,12 @@
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
       </patternFill>
     </fill>
   </fills>
@@ -2136,7 +2165,7 @@
     <xf numFmtId="0" fontId="62" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="601">
+  <cellXfs count="612">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
@@ -3714,6 +3743,25 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="71" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="33" fillId="23" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="23" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="23" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="71" fillId="23" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="13" fillId="3" borderId="3" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="26" fillId="3" borderId="3" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="65" fillId="3" borderId="3" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="73" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="16">
     <cellStyle name="Explanatory Text" xfId="14" builtinId="53"/>
@@ -12601,7 +12649,7 @@
 </file>
 
 <file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{D6A08A61-2CBC-2440-A55B-973E9A2BBBB2}" name="Table21" displayName="Table21" ref="A3:F74" totalsRowShown="0" headerRowDxfId="31" headerRowBorderDxfId="30" tableBorderDxfId="29" totalsRowBorderDxfId="28">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{D6A08A61-2CBC-2440-A55B-973E9A2BBBB2}" name="Table21" displayName="Table21" ref="A3:F75" totalsRowShown="0" headerRowDxfId="31" headerRowBorderDxfId="30" tableBorderDxfId="29" totalsRowBorderDxfId="28">
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{47319793-AA7E-7241-AE2D-C13844517EB1}" name="LiveFrom" dataDxfId="27"/>
     <tableColumn id="2" xr3:uid="{4BC3F1CC-B8A0-DD42-BBD4-5BD8DB4634CE}" name="LiveTo" dataDxfId="26"/>
@@ -12615,7 +12663,7 @@
 </file>
 
 <file path=xl/tables/table24.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{315AA6A0-C96B-A042-AD60-5F6D63D17CA6}" name="Table22" displayName="Table22" ref="A3:F69" totalsRowShown="0" headerRowDxfId="21" headerRowBorderDxfId="20" tableBorderDxfId="19" totalsRowBorderDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{315AA6A0-C96B-A042-AD60-5F6D63D17CA6}" name="Table22" displayName="Table22" ref="A3:F70" totalsRowShown="0" headerRowDxfId="21" headerRowBorderDxfId="20" tableBorderDxfId="19" totalsRowBorderDxfId="18">
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{509EB312-569C-A943-92C0-18A849F5F9AF}" name="LiveFrom" dataDxfId="17"/>
     <tableColumn id="2" xr3:uid="{806AAD02-2C59-5441-80DF-1037D88236E9}" name="LiveTo" dataDxfId="16"/>
@@ -16791,7 +16839,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:W21"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
@@ -28685,7 +28733,7 @@
   <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.25" customHeight="1"/>
@@ -29176,8 +29224,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:G268"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A10" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:XFD23"/>
+    <sheetView showGridLines="0" topLeftCell="A9" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="D70" sqref="D70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.25" customHeight="1"/>
@@ -30668,12 +30716,23 @@
       </c>
     </row>
     <row r="79" spans="1:7" s="318" customFormat="1" ht="20" customHeight="1">
-      <c r="A79" s="52"/>
+      <c r="A79" s="52">
+        <v>42736</v>
+      </c>
       <c r="B79" s="53"/>
-      <c r="C79" s="54"/>
-      <c r="D79" s="54"/>
-      <c r="E79" s="72"/>
-      <c r="F79" s="99"/>
+      <c r="C79" s="555" t="s">
+        <v>324</v>
+      </c>
+      <c r="D79" s="555" t="s">
+        <v>330</v>
+      </c>
+      <c r="E79" s="565" t="s">
+        <v>356</v>
+      </c>
+      <c r="F79" s="555" t="s">
+        <v>105</v>
+      </c>
+      <c r="G79" s="555"/>
     </row>
     <row r="80" spans="1:7" s="318" customFormat="1" ht="20" customHeight="1">
       <c r="A80" s="58"/>
@@ -32482,10 +32541,10 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
-  <dimension ref="A1:EK80"/>
+  <dimension ref="A1:EK81"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView showGridLines="0" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.25" customHeight="1"/>
@@ -32630,24 +32689,24 @@
       </c>
       <c r="G7" s="555"/>
     </row>
-    <row r="8" spans="1:7" ht="20" customHeight="1">
-      <c r="A8" s="52">
+    <row r="8" spans="1:7" s="585" customFormat="1" ht="20" customHeight="1">
+      <c r="A8" s="601">
         <v>42736</v>
       </c>
-      <c r="B8" s="72"/>
-      <c r="C8" s="555" t="s">
-        <v>320</v>
-      </c>
-      <c r="D8" s="555" t="s">
-        <v>340</v>
-      </c>
-      <c r="E8" s="555" t="s">
+      <c r="B8" s="293"/>
+      <c r="C8" s="582" t="s">
+        <v>316</v>
+      </c>
+      <c r="D8" s="582" t="s">
+        <v>343</v>
+      </c>
+      <c r="E8" s="582" t="s">
         <v>362</v>
       </c>
-      <c r="F8" s="555" t="s">
+      <c r="F8" s="582" t="s">
         <v>105</v>
       </c>
-      <c r="G8" s="555"/>
+      <c r="G8" s="582"/>
     </row>
     <row r="9" spans="1:7" ht="20" customHeight="1">
       <c r="A9" s="52">
@@ -32661,7 +32720,7 @@
         <v>340</v>
       </c>
       <c r="E9" s="555" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="F9" s="555" t="s">
         <v>105</v>
@@ -32677,10 +32736,10 @@
         <v>320</v>
       </c>
       <c r="D10" s="555" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="E10" s="555" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F10" s="555" t="s">
         <v>105</v>
@@ -32699,7 +32758,7 @@
         <v>346</v>
       </c>
       <c r="E11" s="555" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F11" s="555" t="s">
         <v>105</v>
@@ -32715,10 +32774,10 @@
         <v>320</v>
       </c>
       <c r="D12" s="555" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="E12" s="555" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F12" s="555" t="s">
         <v>105</v>
@@ -32737,26 +32796,26 @@
         <v>343</v>
       </c>
       <c r="E13" s="555" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F13" s="555" t="s">
         <v>105</v>
       </c>
       <c r="G13" s="555"/>
     </row>
-    <row r="14" spans="1:7" s="18" customFormat="1" ht="20" customHeight="1">
+    <row r="14" spans="1:7" ht="20" customHeight="1">
       <c r="A14" s="52">
         <v>42736</v>
       </c>
-      <c r="B14" s="75"/>
-      <c r="C14" s="557" t="s">
-        <v>321</v>
+      <c r="B14" s="72"/>
+      <c r="C14" s="555" t="s">
+        <v>320</v>
       </c>
       <c r="D14" s="555" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="E14" s="555" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="F14" s="555" t="s">
         <v>105</v>
@@ -32775,31 +32834,31 @@
         <v>340</v>
       </c>
       <c r="E15" s="555" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="F15" s="555" t="s">
         <v>105</v>
       </c>
       <c r="G15" s="555"/>
     </row>
-    <row r="16" spans="1:7" ht="20" customHeight="1">
+    <row r="16" spans="1:7" s="18" customFormat="1" ht="20" customHeight="1">
       <c r="A16" s="52">
         <v>42736</v>
       </c>
-      <c r="B16" s="72"/>
-      <c r="C16" s="555" t="s">
+      <c r="B16" s="75"/>
+      <c r="C16" s="557" t="s">
         <v>321</v>
       </c>
       <c r="D16" s="555" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="E16" s="555" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F16" s="555" t="s">
         <v>105</v>
       </c>
-      <c r="G16"/>
+      <c r="G16" s="555"/>
     </row>
     <row r="17" spans="1:141" ht="20" customHeight="1">
       <c r="A17" s="52">
@@ -32813,26 +32872,26 @@
         <v>346</v>
       </c>
       <c r="E17" s="555" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F17" s="555" t="s">
         <v>105</v>
       </c>
       <c r="G17"/>
     </row>
-    <row r="18" spans="1:141" s="18" customFormat="1" ht="20" customHeight="1">
+    <row r="18" spans="1:141" ht="20" customHeight="1">
       <c r="A18" s="52">
         <v>42736</v>
       </c>
-      <c r="B18" s="75"/>
+      <c r="B18" s="72"/>
       <c r="C18" s="555" t="s">
         <v>321</v>
       </c>
       <c r="D18" s="555" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="E18" s="555" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F18" s="555" t="s">
         <v>105</v>
@@ -32851,165 +32910,31 @@
         <v>343</v>
       </c>
       <c r="E19" s="555" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F19" s="555" t="s">
         <v>105</v>
       </c>
       <c r="G19"/>
     </row>
-    <row r="20" spans="1:141" s="219" customFormat="1" ht="20" customHeight="1">
+    <row r="20" spans="1:141" s="18" customFormat="1" ht="20" customHeight="1">
       <c r="A20" s="52">
         <v>42736</v>
       </c>
-      <c r="B20" s="234"/>
-      <c r="C20" s="557" t="s">
-        <v>322</v>
+      <c r="B20" s="75"/>
+      <c r="C20" s="555" t="s">
+        <v>321</v>
       </c>
       <c r="D20" s="555" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="E20" s="555" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="F20" s="555" t="s">
         <v>105</v>
       </c>
-      <c r="G20" s="555"/>
-      <c r="H20" s="263"/>
-      <c r="I20" s="263"/>
-      <c r="J20" s="263"/>
-      <c r="K20" s="263"/>
-      <c r="L20" s="263"/>
-      <c r="M20" s="263"/>
-      <c r="N20" s="263"/>
-      <c r="O20" s="263"/>
-      <c r="P20" s="263"/>
-      <c r="Q20" s="263"/>
-      <c r="R20" s="263"/>
-      <c r="S20" s="263"/>
-      <c r="T20" s="263"/>
-      <c r="U20" s="263"/>
-      <c r="V20" s="263"/>
-      <c r="W20" s="263"/>
-      <c r="X20" s="263"/>
-      <c r="Y20" s="263"/>
-      <c r="Z20" s="263"/>
-      <c r="AA20" s="263"/>
-      <c r="AB20" s="263"/>
-      <c r="AC20" s="263"/>
-      <c r="AD20" s="263"/>
-      <c r="AE20" s="263"/>
-      <c r="AF20" s="263"/>
-      <c r="AG20" s="263"/>
-      <c r="AH20" s="263"/>
-      <c r="AI20" s="263"/>
-      <c r="AJ20" s="263"/>
-      <c r="AK20" s="263"/>
-      <c r="AL20" s="263"/>
-      <c r="AM20" s="263"/>
-      <c r="AN20" s="263"/>
-      <c r="AO20" s="263"/>
-      <c r="AP20" s="263"/>
-      <c r="AQ20" s="263"/>
-      <c r="AR20" s="263"/>
-      <c r="AS20" s="263"/>
-      <c r="AT20" s="263"/>
-      <c r="AU20" s="263"/>
-      <c r="AV20" s="263"/>
-      <c r="AW20" s="263"/>
-      <c r="AX20" s="263"/>
-      <c r="AY20" s="263"/>
-      <c r="AZ20" s="263"/>
-      <c r="BA20" s="263"/>
-      <c r="BB20" s="263"/>
-      <c r="BC20" s="263"/>
-      <c r="BD20" s="263"/>
-      <c r="BE20" s="263"/>
-      <c r="BF20" s="263"/>
-      <c r="BG20" s="263"/>
-      <c r="BH20" s="263"/>
-      <c r="BI20" s="263"/>
-      <c r="BJ20" s="263"/>
-      <c r="BK20" s="263"/>
-      <c r="BL20" s="263"/>
-      <c r="BM20" s="263"/>
-      <c r="BN20" s="263"/>
-      <c r="BO20" s="263"/>
-      <c r="BP20" s="263"/>
-      <c r="BQ20" s="263"/>
-      <c r="BR20" s="263"/>
-      <c r="BS20" s="263"/>
-      <c r="BT20" s="263"/>
-      <c r="BU20" s="263"/>
-      <c r="BV20" s="263"/>
-      <c r="BW20" s="263"/>
-      <c r="BX20" s="263"/>
-      <c r="BY20" s="263"/>
-      <c r="BZ20" s="263"/>
-      <c r="CA20" s="263"/>
-      <c r="CB20" s="263"/>
-      <c r="CC20" s="263"/>
-      <c r="CD20" s="263"/>
-      <c r="CE20" s="263"/>
-      <c r="CF20" s="263"/>
-      <c r="CG20" s="263"/>
-      <c r="CH20" s="263"/>
-      <c r="CI20" s="263"/>
-      <c r="CJ20" s="263"/>
-      <c r="CK20" s="263"/>
-      <c r="CL20" s="263"/>
-      <c r="CM20" s="263"/>
-      <c r="CN20" s="263"/>
-      <c r="CO20" s="263"/>
-      <c r="CP20" s="263"/>
-      <c r="CQ20" s="263"/>
-      <c r="CR20" s="263"/>
-      <c r="CS20" s="263"/>
-      <c r="CT20" s="263"/>
-      <c r="CU20" s="263"/>
-      <c r="CV20" s="263"/>
-      <c r="CW20" s="263"/>
-      <c r="CX20" s="263"/>
-      <c r="CY20" s="263"/>
-      <c r="CZ20" s="263"/>
-      <c r="DA20" s="263"/>
-      <c r="DB20" s="263"/>
-      <c r="DC20" s="263"/>
-      <c r="DD20" s="263"/>
-      <c r="DE20" s="263"/>
-      <c r="DF20" s="263"/>
-      <c r="DG20" s="263"/>
-      <c r="DH20" s="263"/>
-      <c r="DI20" s="263"/>
-      <c r="DJ20" s="263"/>
-      <c r="DK20" s="263"/>
-      <c r="DL20" s="263"/>
-      <c r="DM20" s="263"/>
-      <c r="DN20" s="263"/>
-      <c r="DO20" s="263"/>
-      <c r="DP20" s="263"/>
-      <c r="DQ20" s="263"/>
-      <c r="DR20" s="263"/>
-      <c r="DS20" s="263"/>
-      <c r="DT20" s="263"/>
-      <c r="DU20" s="263"/>
-      <c r="DV20" s="263"/>
-      <c r="DW20" s="263"/>
-      <c r="DX20" s="263"/>
-      <c r="DY20" s="263"/>
-      <c r="DZ20" s="263"/>
-      <c r="EA20" s="263"/>
-      <c r="EB20" s="263"/>
-      <c r="EC20" s="263"/>
-      <c r="ED20" s="263"/>
-      <c r="EE20" s="263"/>
-      <c r="EF20" s="263"/>
-      <c r="EG20" s="263"/>
-      <c r="EH20" s="263"/>
-      <c r="EI20" s="263"/>
-      <c r="EJ20" s="263"/>
-      <c r="EK20" s="263"/>
+      <c r="G20"/>
     </row>
     <row r="21" spans="1:141" s="219" customFormat="1" ht="20" customHeight="1">
       <c r="A21" s="52">
@@ -33023,7 +32948,7 @@
         <v>340</v>
       </c>
       <c r="E21" s="555" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="F21" s="555" t="s">
         <v>105</v>
@@ -33164,24 +33089,158 @@
       <c r="EJ21" s="263"/>
       <c r="EK21" s="263"/>
     </row>
-    <row r="22" spans="1:141" ht="20" customHeight="1">
+    <row r="22" spans="1:141" s="219" customFormat="1" ht="20" customHeight="1">
       <c r="A22" s="52">
         <v>42736</v>
       </c>
-      <c r="B22" s="293"/>
-      <c r="C22" s="555" t="s">
+      <c r="B22" s="234"/>
+      <c r="C22" s="557" t="s">
         <v>322</v>
       </c>
       <c r="D22" s="555" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="E22" s="555" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F22" s="555" t="s">
         <v>105</v>
       </c>
-      <c r="G22"/>
+      <c r="G22" s="555"/>
+      <c r="H22" s="263"/>
+      <c r="I22" s="263"/>
+      <c r="J22" s="263"/>
+      <c r="K22" s="263"/>
+      <c r="L22" s="263"/>
+      <c r="M22" s="263"/>
+      <c r="N22" s="263"/>
+      <c r="O22" s="263"/>
+      <c r="P22" s="263"/>
+      <c r="Q22" s="263"/>
+      <c r="R22" s="263"/>
+      <c r="S22" s="263"/>
+      <c r="T22" s="263"/>
+      <c r="U22" s="263"/>
+      <c r="V22" s="263"/>
+      <c r="W22" s="263"/>
+      <c r="X22" s="263"/>
+      <c r="Y22" s="263"/>
+      <c r="Z22" s="263"/>
+      <c r="AA22" s="263"/>
+      <c r="AB22" s="263"/>
+      <c r="AC22" s="263"/>
+      <c r="AD22" s="263"/>
+      <c r="AE22" s="263"/>
+      <c r="AF22" s="263"/>
+      <c r="AG22" s="263"/>
+      <c r="AH22" s="263"/>
+      <c r="AI22" s="263"/>
+      <c r="AJ22" s="263"/>
+      <c r="AK22" s="263"/>
+      <c r="AL22" s="263"/>
+      <c r="AM22" s="263"/>
+      <c r="AN22" s="263"/>
+      <c r="AO22" s="263"/>
+      <c r="AP22" s="263"/>
+      <c r="AQ22" s="263"/>
+      <c r="AR22" s="263"/>
+      <c r="AS22" s="263"/>
+      <c r="AT22" s="263"/>
+      <c r="AU22" s="263"/>
+      <c r="AV22" s="263"/>
+      <c r="AW22" s="263"/>
+      <c r="AX22" s="263"/>
+      <c r="AY22" s="263"/>
+      <c r="AZ22" s="263"/>
+      <c r="BA22" s="263"/>
+      <c r="BB22" s="263"/>
+      <c r="BC22" s="263"/>
+      <c r="BD22" s="263"/>
+      <c r="BE22" s="263"/>
+      <c r="BF22" s="263"/>
+      <c r="BG22" s="263"/>
+      <c r="BH22" s="263"/>
+      <c r="BI22" s="263"/>
+      <c r="BJ22" s="263"/>
+      <c r="BK22" s="263"/>
+      <c r="BL22" s="263"/>
+      <c r="BM22" s="263"/>
+      <c r="BN22" s="263"/>
+      <c r="BO22" s="263"/>
+      <c r="BP22" s="263"/>
+      <c r="BQ22" s="263"/>
+      <c r="BR22" s="263"/>
+      <c r="BS22" s="263"/>
+      <c r="BT22" s="263"/>
+      <c r="BU22" s="263"/>
+      <c r="BV22" s="263"/>
+      <c r="BW22" s="263"/>
+      <c r="BX22" s="263"/>
+      <c r="BY22" s="263"/>
+      <c r="BZ22" s="263"/>
+      <c r="CA22" s="263"/>
+      <c r="CB22" s="263"/>
+      <c r="CC22" s="263"/>
+      <c r="CD22" s="263"/>
+      <c r="CE22" s="263"/>
+      <c r="CF22" s="263"/>
+      <c r="CG22" s="263"/>
+      <c r="CH22" s="263"/>
+      <c r="CI22" s="263"/>
+      <c r="CJ22" s="263"/>
+      <c r="CK22" s="263"/>
+      <c r="CL22" s="263"/>
+      <c r="CM22" s="263"/>
+      <c r="CN22" s="263"/>
+      <c r="CO22" s="263"/>
+      <c r="CP22" s="263"/>
+      <c r="CQ22" s="263"/>
+      <c r="CR22" s="263"/>
+      <c r="CS22" s="263"/>
+      <c r="CT22" s="263"/>
+      <c r="CU22" s="263"/>
+      <c r="CV22" s="263"/>
+      <c r="CW22" s="263"/>
+      <c r="CX22" s="263"/>
+      <c r="CY22" s="263"/>
+      <c r="CZ22" s="263"/>
+      <c r="DA22" s="263"/>
+      <c r="DB22" s="263"/>
+      <c r="DC22" s="263"/>
+      <c r="DD22" s="263"/>
+      <c r="DE22" s="263"/>
+      <c r="DF22" s="263"/>
+      <c r="DG22" s="263"/>
+      <c r="DH22" s="263"/>
+      <c r="DI22" s="263"/>
+      <c r="DJ22" s="263"/>
+      <c r="DK22" s="263"/>
+      <c r="DL22" s="263"/>
+      <c r="DM22" s="263"/>
+      <c r="DN22" s="263"/>
+      <c r="DO22" s="263"/>
+      <c r="DP22" s="263"/>
+      <c r="DQ22" s="263"/>
+      <c r="DR22" s="263"/>
+      <c r="DS22" s="263"/>
+      <c r="DT22" s="263"/>
+      <c r="DU22" s="263"/>
+      <c r="DV22" s="263"/>
+      <c r="DW22" s="263"/>
+      <c r="DX22" s="263"/>
+      <c r="DY22" s="263"/>
+      <c r="DZ22" s="263"/>
+      <c r="EA22" s="263"/>
+      <c r="EB22" s="263"/>
+      <c r="EC22" s="263"/>
+      <c r="ED22" s="263"/>
+      <c r="EE22" s="263"/>
+      <c r="EF22" s="263"/>
+      <c r="EG22" s="263"/>
+      <c r="EH22" s="263"/>
+      <c r="EI22" s="263"/>
+      <c r="EJ22" s="263"/>
+      <c r="EK22" s="263"/>
     </row>
     <row r="23" spans="1:141" ht="20" customHeight="1">
       <c r="A23" s="52">
@@ -33195,7 +33254,7 @@
         <v>346</v>
       </c>
       <c r="E23" s="555" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F23" s="555" t="s">
         <v>105</v>
@@ -33211,10 +33270,10 @@
         <v>322</v>
       </c>
       <c r="D24" s="555" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="E24" s="555" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F24" s="555" t="s">
         <v>105</v>
@@ -33233,7 +33292,7 @@
         <v>343</v>
       </c>
       <c r="E25" s="555" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F25" s="555" t="s">
         <v>105</v>
@@ -33245,19 +33304,19 @@
         <v>42736</v>
       </c>
       <c r="B26" s="293"/>
-      <c r="C26" s="557" t="s">
-        <v>323</v>
+      <c r="C26" s="555" t="s">
+        <v>322</v>
       </c>
       <c r="D26" s="555" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="E26" s="555" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="F26" s="555" t="s">
         <v>105</v>
       </c>
-      <c r="G26" s="555"/>
+      <c r="G26"/>
     </row>
     <row r="27" spans="1:141" ht="20" customHeight="1">
       <c r="A27" s="52">
@@ -33271,7 +33330,7 @@
         <v>340</v>
       </c>
       <c r="E27" s="555" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="F27" s="555" t="s">
         <v>105</v>
@@ -33283,19 +33342,19 @@
         <v>42736</v>
       </c>
       <c r="B28" s="293"/>
-      <c r="C28" s="555" t="s">
+      <c r="C28" s="557" t="s">
         <v>323</v>
       </c>
       <c r="D28" s="555" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="E28" s="555" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F28" s="555" t="s">
         <v>105</v>
       </c>
-      <c r="G28"/>
+      <c r="G28" s="555"/>
     </row>
     <row r="29" spans="1:141" ht="20" customHeight="1">
       <c r="A29" s="52">
@@ -33309,7 +33368,7 @@
         <v>346</v>
       </c>
       <c r="E29" s="555" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F29" s="555" t="s">
         <v>105</v>
@@ -33320,15 +33379,15 @@
       <c r="A30" s="52">
         <v>42736</v>
       </c>
-      <c r="B30" s="72"/>
+      <c r="B30" s="293"/>
       <c r="C30" s="555" t="s">
         <v>323</v>
       </c>
       <c r="D30" s="555" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="E30" s="555" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F30" s="555" t="s">
         <v>105</v>
@@ -33347,7 +33406,7 @@
         <v>343</v>
       </c>
       <c r="E31" s="555" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F31" s="555" t="s">
         <v>105</v>
@@ -33359,19 +33418,19 @@
         <v>42736</v>
       </c>
       <c r="B32" s="72"/>
-      <c r="C32" s="557" t="s">
-        <v>324</v>
+      <c r="C32" s="555" t="s">
+        <v>323</v>
       </c>
       <c r="D32" s="555" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="E32" s="555" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="F32" s="555" t="s">
         <v>105</v>
       </c>
-      <c r="G32" s="555"/>
+      <c r="G32"/>
     </row>
     <row r="33" spans="1:7" ht="20" customHeight="1">
       <c r="A33" s="52">
@@ -33385,7 +33444,7 @@
         <v>340</v>
       </c>
       <c r="E33" s="555" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F33" s="555" t="s">
         <v>105</v>
@@ -33397,19 +33456,19 @@
         <v>42736</v>
       </c>
       <c r="B34" s="72"/>
-      <c r="C34" s="555" t="s">
+      <c r="C34" s="557" t="s">
         <v>324</v>
       </c>
       <c r="D34" s="555" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="E34" s="555" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="F34" s="555" t="s">
         <v>105</v>
       </c>
-      <c r="G34"/>
+      <c r="G34" s="555"/>
     </row>
     <row r="35" spans="1:7" ht="20" customHeight="1">
       <c r="A35" s="52">
@@ -33423,7 +33482,7 @@
         <v>346</v>
       </c>
       <c r="E35" s="555" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F35" s="555" t="s">
         <v>105</v>
@@ -33439,10 +33498,10 @@
         <v>324</v>
       </c>
       <c r="D36" s="555" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="E36" s="555" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="F36" s="555" t="s">
         <v>105</v>
@@ -33461,7 +33520,7 @@
         <v>343</v>
       </c>
       <c r="E37" s="555" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F37" s="555" t="s">
         <v>105</v>
@@ -33469,12 +33528,22 @@
       <c r="G37"/>
     </row>
     <row r="38" spans="1:7" ht="20" customHeight="1">
-      <c r="A38" s="52"/>
+      <c r="A38" s="52">
+        <v>42736</v>
+      </c>
       <c r="B38" s="72"/>
-      <c r="C38" s="555"/>
-      <c r="D38" s="555"/>
-      <c r="E38" s="555"/>
-      <c r="F38" s="555"/>
+      <c r="C38" s="555" t="s">
+        <v>324</v>
+      </c>
+      <c r="D38" s="555" t="s">
+        <v>343</v>
+      </c>
+      <c r="E38" s="555" t="s">
+        <v>357</v>
+      </c>
+      <c r="F38" s="555" t="s">
+        <v>105</v>
+      </c>
       <c r="G38"/>
     </row>
     <row r="39" spans="1:7" ht="20" customHeight="1">
@@ -33486,20 +33555,21 @@
       <c r="F39" s="555"/>
       <c r="G39"/>
     </row>
-    <row r="40" spans="1:7" s="18" customFormat="1" ht="20" customHeight="1">
-      <c r="A40" s="58"/>
-      <c r="B40" s="75"/>
-      <c r="C40" s="60"/>
-      <c r="D40" s="60"/>
-      <c r="E40" s="75"/>
-      <c r="F40" s="103"/>
-    </row>
-    <row r="41" spans="1:7" ht="20" customHeight="1">
+    <row r="40" spans="1:7" ht="20" customHeight="1">
+      <c r="A40" s="52"/>
+      <c r="B40" s="72"/>
+      <c r="C40" s="555"/>
+      <c r="D40" s="555"/>
+      <c r="E40" s="555"/>
+      <c r="F40" s="555"/>
+      <c r="G40"/>
+    </row>
+    <row r="41" spans="1:7" s="18" customFormat="1" ht="20" customHeight="1">
       <c r="A41" s="58"/>
       <c r="B41" s="75"/>
-      <c r="C41" s="57"/>
+      <c r="C41" s="60"/>
       <c r="D41" s="60"/>
-      <c r="E41" s="112"/>
+      <c r="E41" s="75"/>
       <c r="F41" s="103"/>
     </row>
     <row r="42" spans="1:7" ht="20" customHeight="1">
@@ -33511,18 +33581,18 @@
       <c r="F42" s="103"/>
     </row>
     <row r="43" spans="1:7" ht="20" customHeight="1">
-      <c r="A43" s="63"/>
-      <c r="B43" s="79"/>
-      <c r="C43" s="65"/>
-      <c r="D43" s="77"/>
-      <c r="E43" s="152"/>
-      <c r="F43" s="106"/>
+      <c r="A43" s="58"/>
+      <c r="B43" s="75"/>
+      <c r="C43" s="57"/>
+      <c r="D43" s="60"/>
+      <c r="E43" s="112"/>
+      <c r="F43" s="103"/>
     </row>
     <row r="44" spans="1:7" ht="20" customHeight="1">
       <c r="A44" s="63"/>
-      <c r="B44" s="61"/>
-      <c r="C44" s="57"/>
-      <c r="D44" s="73"/>
+      <c r="B44" s="79"/>
+      <c r="C44" s="65"/>
+      <c r="D44" s="77"/>
       <c r="E44" s="152"/>
       <c r="F44" s="106"/>
     </row>
@@ -33544,34 +33614,34 @@
     </row>
     <row r="47" spans="1:7" ht="20" customHeight="1">
       <c r="A47" s="63"/>
-      <c r="B47" s="64"/>
+      <c r="B47" s="61"/>
       <c r="C47" s="57"/>
-      <c r="D47" s="78"/>
+      <c r="D47" s="73"/>
       <c r="E47" s="152"/>
       <c r="F47" s="106"/>
     </row>
     <row r="48" spans="1:7" ht="20" customHeight="1">
-      <c r="A48" s="204"/>
-      <c r="B48" s="272"/>
-      <c r="C48" s="65"/>
-      <c r="D48" s="206"/>
-      <c r="E48" s="271"/>
-      <c r="F48" s="207"/>
+      <c r="A48" s="63"/>
+      <c r="B48" s="64"/>
+      <c r="C48" s="57"/>
+      <c r="D48" s="78"/>
+      <c r="E48" s="152"/>
+      <c r="F48" s="106"/>
     </row>
     <row r="49" spans="1:6" ht="20" customHeight="1">
-      <c r="A49" s="52"/>
-      <c r="B49" s="72"/>
-      <c r="C49" s="54"/>
-      <c r="D49" s="57"/>
+      <c r="A49" s="204"/>
+      <c r="B49" s="272"/>
+      <c r="C49" s="65"/>
+      <c r="D49" s="206"/>
       <c r="E49" s="271"/>
-      <c r="F49" s="99"/>
-    </row>
-    <row r="50" spans="1:6" s="318" customFormat="1" ht="20" customHeight="1">
+      <c r="F49" s="207"/>
+    </row>
+    <row r="50" spans="1:6" ht="20" customHeight="1">
       <c r="A50" s="52"/>
-      <c r="B50" s="61"/>
-      <c r="C50" s="57"/>
-      <c r="D50" s="54"/>
-      <c r="E50" s="422"/>
+      <c r="B50" s="72"/>
+      <c r="C50" s="54"/>
+      <c r="D50" s="57"/>
+      <c r="E50" s="271"/>
       <c r="F50" s="99"/>
     </row>
     <row r="51" spans="1:6" s="318" customFormat="1" ht="20" customHeight="1">
@@ -33614,21 +33684,21 @@
       <c r="E55" s="422"/>
       <c r="F55" s="99"/>
     </row>
-    <row r="56" spans="1:6" s="18" customFormat="1" ht="13.25" customHeight="1">
-      <c r="A56" s="58"/>
-      <c r="B56" s="105"/>
+    <row r="56" spans="1:6" s="318" customFormat="1" ht="20" customHeight="1">
+      <c r="A56" s="52"/>
+      <c r="B56" s="61"/>
       <c r="C56" s="57"/>
-      <c r="D56" s="440"/>
+      <c r="D56" s="54"/>
       <c r="E56" s="422"/>
-      <c r="F56" s="103"/>
-    </row>
-    <row r="57" spans="1:6" s="318" customFormat="1" ht="20" customHeight="1">
-      <c r="A57" s="52"/>
-      <c r="B57" s="61"/>
+      <c r="F56" s="99"/>
+    </row>
+    <row r="57" spans="1:6" s="18" customFormat="1" ht="13.25" customHeight="1">
+      <c r="A57" s="58"/>
+      <c r="B57" s="105"/>
       <c r="C57" s="57"/>
-      <c r="D57" s="54"/>
+      <c r="D57" s="440"/>
       <c r="E57" s="422"/>
-      <c r="F57" s="99"/>
+      <c r="F57" s="103"/>
     </row>
     <row r="58" spans="1:6" s="318" customFormat="1" ht="20" customHeight="1">
       <c r="A58" s="52"/>
@@ -33664,51 +33734,51 @@
     </row>
     <row r="62" spans="1:6" s="318" customFormat="1" ht="20" customHeight="1">
       <c r="A62" s="52"/>
-      <c r="B62" s="64"/>
-      <c r="C62" s="65"/>
-      <c r="D62" s="206"/>
-      <c r="E62" s="271"/>
-      <c r="F62" s="207"/>
+      <c r="B62" s="61"/>
+      <c r="C62" s="57"/>
+      <c r="D62" s="54"/>
+      <c r="E62" s="422"/>
+      <c r="F62" s="99"/>
     </row>
     <row r="63" spans="1:6" s="318" customFormat="1" ht="20" customHeight="1">
       <c r="A63" s="52"/>
-      <c r="B63" s="61"/>
-      <c r="C63" s="57"/>
-      <c r="D63" s="54"/>
-      <c r="E63" s="422"/>
-      <c r="F63" s="99"/>
+      <c r="B63" s="64"/>
+      <c r="C63" s="65"/>
+      <c r="D63" s="206"/>
+      <c r="E63" s="271"/>
+      <c r="F63" s="207"/>
     </row>
     <row r="64" spans="1:6" s="318" customFormat="1" ht="20" customHeight="1">
       <c r="A64" s="52"/>
       <c r="B64" s="61"/>
       <c r="C64" s="57"/>
-      <c r="D64" s="57"/>
-      <c r="E64" s="271"/>
-      <c r="F64" s="207"/>
+      <c r="D64" s="54"/>
+      <c r="E64" s="422"/>
+      <c r="F64" s="99"/>
     </row>
     <row r="65" spans="1:6" s="318" customFormat="1" ht="20" customHeight="1">
       <c r="A65" s="52"/>
       <c r="B65" s="61"/>
-      <c r="C65" s="458"/>
-      <c r="D65" s="458"/>
-      <c r="E65" s="422"/>
-      <c r="F65" s="99"/>
+      <c r="C65" s="57"/>
+      <c r="D65" s="57"/>
+      <c r="E65" s="271"/>
+      <c r="F65" s="207"/>
     </row>
     <row r="66" spans="1:6" s="318" customFormat="1" ht="20" customHeight="1">
       <c r="A66" s="52"/>
       <c r="B66" s="61"/>
-      <c r="C66" s="57"/>
-      <c r="D66" s="57"/>
-      <c r="E66" s="271"/>
-      <c r="F66" s="207"/>
-    </row>
-    <row r="67" spans="1:6" s="18" customFormat="1" ht="20" customHeight="1">
-      <c r="A67" s="470"/>
-      <c r="B67" s="464"/>
-      <c r="C67" s="501"/>
-      <c r="D67" s="463"/>
-      <c r="E67" s="464"/>
-      <c r="F67" s="500"/>
+      <c r="C66" s="458"/>
+      <c r="D66" s="458"/>
+      <c r="E66" s="422"/>
+      <c r="F66" s="99"/>
+    </row>
+    <row r="67" spans="1:6" s="318" customFormat="1" ht="20" customHeight="1">
+      <c r="A67" s="52"/>
+      <c r="B67" s="61"/>
+      <c r="C67" s="57"/>
+      <c r="D67" s="57"/>
+      <c r="E67" s="271"/>
+      <c r="F67" s="207"/>
     </row>
     <row r="68" spans="1:6" s="18" customFormat="1" ht="20" customHeight="1">
       <c r="A68" s="470"/>
@@ -33718,21 +33788,21 @@
       <c r="E68" s="464"/>
       <c r="F68" s="500"/>
     </row>
-    <row r="69" spans="1:6" ht="20" customHeight="1">
-      <c r="A69" s="52"/>
-      <c r="B69" s="72"/>
-      <c r="C69" s="54"/>
-      <c r="D69" s="54"/>
-      <c r="E69" s="112"/>
-      <c r="F69" s="99"/>
+    <row r="69" spans="1:6" s="18" customFormat="1" ht="20" customHeight="1">
+      <c r="A69" s="470"/>
+      <c r="B69" s="464"/>
+      <c r="C69" s="501"/>
+      <c r="D69" s="463"/>
+      <c r="E69" s="464"/>
+      <c r="F69" s="500"/>
     </row>
     <row r="70" spans="1:6" ht="20" customHeight="1">
       <c r="A70" s="52"/>
       <c r="B70" s="72"/>
       <c r="C70" s="54"/>
-      <c r="D70" s="57"/>
+      <c r="D70" s="54"/>
       <c r="E70" s="112"/>
-      <c r="F70" s="217"/>
+      <c r="F70" s="99"/>
     </row>
     <row r="71" spans="1:6" ht="20" customHeight="1">
       <c r="A71" s="52"/>
@@ -33740,7 +33810,7 @@
       <c r="C71" s="54"/>
       <c r="D71" s="57"/>
       <c r="E71" s="112"/>
-      <c r="F71" s="99"/>
+      <c r="F71" s="217"/>
     </row>
     <row r="72" spans="1:6" ht="20" customHeight="1">
       <c r="A72" s="52"/>
@@ -33762,49 +33832,49 @@
       <c r="A74" s="52"/>
       <c r="B74" s="72"/>
       <c r="C74" s="54"/>
-      <c r="D74" s="16"/>
+      <c r="D74" s="57"/>
       <c r="E74" s="112"/>
-      <c r="F74" s="217"/>
+      <c r="F74" s="99"/>
     </row>
     <row r="75" spans="1:6" ht="20" customHeight="1">
       <c r="A75" s="52"/>
       <c r="B75" s="72"/>
       <c r="C75" s="54"/>
-      <c r="D75" s="57"/>
+      <c r="D75" s="16"/>
       <c r="E75" s="112"/>
       <c r="F75" s="217"/>
     </row>
-    <row r="76" spans="1:6" s="17" customFormat="1" ht="20" customHeight="1">
-      <c r="A76" s="551"/>
-      <c r="B76" s="552"/>
-      <c r="C76" s="518"/>
-      <c r="D76" s="518"/>
-      <c r="E76" s="553"/>
-      <c r="F76" s="554"/>
-    </row>
-    <row r="77" spans="1:6" ht="20" customHeight="1">
-      <c r="A77" s="52"/>
-      <c r="B77" s="72"/>
-      <c r="C77" s="57"/>
-      <c r="D77" s="54"/>
-      <c r="E77" s="112"/>
-      <c r="F77" s="99"/>
+    <row r="76" spans="1:6" ht="20" customHeight="1">
+      <c r="A76" s="52"/>
+      <c r="B76" s="72"/>
+      <c r="C76" s="54"/>
+      <c r="D76" s="57"/>
+      <c r="E76" s="112"/>
+      <c r="F76" s="217"/>
+    </row>
+    <row r="77" spans="1:6" s="17" customFormat="1" ht="20" customHeight="1">
+      <c r="A77" s="551"/>
+      <c r="B77" s="552"/>
+      <c r="C77" s="518"/>
+      <c r="D77" s="518"/>
+      <c r="E77" s="553"/>
+      <c r="F77" s="554"/>
     </row>
     <row r="78" spans="1:6" ht="20" customHeight="1">
       <c r="A78" s="52"/>
       <c r="B78" s="72"/>
       <c r="C78" s="57"/>
-      <c r="D78" s="57"/>
+      <c r="D78" s="54"/>
       <c r="E78" s="112"/>
       <c r="F78" s="99"/>
     </row>
-    <row r="79" spans="1:6" s="17" customFormat="1" ht="20" customHeight="1">
-      <c r="A79" s="551"/>
-      <c r="B79" s="552"/>
-      <c r="C79" s="518"/>
-      <c r="D79" s="518"/>
-      <c r="E79" s="553"/>
-      <c r="F79" s="554"/>
+    <row r="79" spans="1:6" ht="20" customHeight="1">
+      <c r="A79" s="52"/>
+      <c r="B79" s="72"/>
+      <c r="C79" s="57"/>
+      <c r="D79" s="57"/>
+      <c r="E79" s="112"/>
+      <c r="F79" s="99"/>
     </row>
     <row r="80" spans="1:6" s="17" customFormat="1" ht="20" customHeight="1">
       <c r="A80" s="551"/>
@@ -33813,6 +33883,14 @@
       <c r="D80" s="518"/>
       <c r="E80" s="553"/>
       <c r="F80" s="554"/>
+    </row>
+    <row r="81" spans="1:6" s="17" customFormat="1" ht="20" customHeight="1">
+      <c r="A81" s="551"/>
+      <c r="B81" s="552"/>
+      <c r="C81" s="518"/>
+      <c r="D81" s="518"/>
+      <c r="E81" s="553"/>
+      <c r="F81" s="554"/>
     </row>
   </sheetData>
   <phoneticPr fontId="38" type="noConversion"/>
@@ -33829,10 +33907,10 @@
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
-  <dimension ref="A1:G71"/>
+  <dimension ref="A1:G72"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.25" customHeight="1"/>
@@ -33901,21 +33979,21 @@
         <v>104</v>
       </c>
     </row>
-    <row r="4" spans="1:6" customFormat="1" ht="18">
-      <c r="A4" s="520">
+    <row r="4" spans="1:6" s="585" customFormat="1" ht="18">
+      <c r="A4" s="602">
         <v>42736</v>
       </c>
-      <c r="B4" s="569"/>
+      <c r="B4" s="603"/>
       <c r="C4" s="565" t="s">
         <v>316</v>
       </c>
-      <c r="D4" s="565" t="s">
+      <c r="D4" s="604" t="s">
         <v>342</v>
       </c>
-      <c r="E4" s="565" t="s">
-        <v>358</v>
-      </c>
-      <c r="F4" s="566" t="s">
+      <c r="E4" s="604" t="s">
+        <v>362</v>
+      </c>
+      <c r="F4" s="605" t="s">
         <v>105</v>
       </c>
     </row>
@@ -33931,7 +34009,7 @@
         <v>342</v>
       </c>
       <c r="E5" s="565" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F5" s="566" t="s">
         <v>105</v>
@@ -33941,17 +34019,17 @@
       <c r="A6" s="520">
         <v>42736</v>
       </c>
-      <c r="B6" s="568"/>
-      <c r="C6" s="563" t="s">
+      <c r="B6" s="569"/>
+      <c r="C6" s="565" t="s">
         <v>316</v>
       </c>
-      <c r="D6" s="563" t="s">
-        <v>347</v>
-      </c>
-      <c r="E6" s="563" t="s">
-        <v>358</v>
-      </c>
-      <c r="F6" s="564" t="s">
+      <c r="D6" s="565" t="s">
+        <v>342</v>
+      </c>
+      <c r="E6" s="565" t="s">
+        <v>357</v>
+      </c>
+      <c r="F6" s="566" t="s">
         <v>105</v>
       </c>
     </row>
@@ -33967,7 +34045,7 @@
         <v>347</v>
       </c>
       <c r="E7" s="563" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F7" s="564" t="s">
         <v>105</v>
@@ -33977,17 +34055,17 @@
       <c r="A8" s="520">
         <v>42736</v>
       </c>
-      <c r="B8" s="569"/>
-      <c r="C8" s="565" t="s">
+      <c r="B8" s="568"/>
+      <c r="C8" s="563" t="s">
         <v>316</v>
       </c>
-      <c r="D8" s="565" t="s">
-        <v>345</v>
-      </c>
-      <c r="E8" s="565" t="s">
-        <v>358</v>
-      </c>
-      <c r="F8" s="566" t="s">
+      <c r="D8" s="563" t="s">
+        <v>347</v>
+      </c>
+      <c r="E8" s="563" t="s">
+        <v>357</v>
+      </c>
+      <c r="F8" s="564" t="s">
         <v>105</v>
       </c>
     </row>
@@ -34003,7 +34081,7 @@
         <v>345</v>
       </c>
       <c r="E9" s="565" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F9" s="566" t="s">
         <v>105</v>
@@ -34021,7 +34099,7 @@
         <v>345</v>
       </c>
       <c r="E10" s="565" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="F10" s="566" t="s">
         <v>105</v>
@@ -34031,17 +34109,17 @@
       <c r="A11" s="520">
         <v>42736</v>
       </c>
-      <c r="B11" s="568"/>
-      <c r="C11" s="563" t="s">
+      <c r="B11" s="569"/>
+      <c r="C11" s="565" t="s">
         <v>316</v>
       </c>
-      <c r="D11" s="563" t="s">
-        <v>351</v>
-      </c>
-      <c r="E11" s="563" t="s">
-        <v>358</v>
-      </c>
-      <c r="F11" s="564" t="s">
+      <c r="D11" s="565" t="s">
+        <v>345</v>
+      </c>
+      <c r="E11" s="565" t="s">
+        <v>357</v>
+      </c>
+      <c r="F11" s="566" t="s">
         <v>105</v>
       </c>
     </row>
@@ -34057,7 +34135,7 @@
         <v>351</v>
       </c>
       <c r="E12" s="563" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F12" s="564" t="s">
         <v>105</v>
@@ -34075,27 +34153,27 @@
         <v>351</v>
       </c>
       <c r="E13" s="563" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="F13" s="564" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="590" customFormat="1" ht="18">
-      <c r="A14" s="586">
+    <row r="14" spans="1:6" customFormat="1" ht="18">
+      <c r="A14" s="520">
         <v>42736</v>
       </c>
-      <c r="B14" s="587"/>
-      <c r="C14" s="588" t="s">
-        <v>320</v>
-      </c>
-      <c r="D14" s="588" t="s">
-        <v>342</v>
-      </c>
-      <c r="E14" s="588" t="s">
+      <c r="B14" s="568"/>
+      <c r="C14" s="563" t="s">
+        <v>316</v>
+      </c>
+      <c r="D14" s="563" t="s">
+        <v>351</v>
+      </c>
+      <c r="E14" s="563" t="s">
         <v>357</v>
       </c>
-      <c r="F14" s="589" t="s">
+      <c r="F14" s="564" t="s">
         <v>105</v>
       </c>
     </row>
@@ -34110,8 +34188,8 @@
       <c r="D15" s="588" t="s">
         <v>342</v>
       </c>
-      <c r="E15" s="591" t="s">
-        <v>358</v>
+      <c r="E15" s="588" t="s">
+        <v>357</v>
       </c>
       <c r="F15" s="589" t="s">
         <v>105</v>
@@ -34121,17 +34199,17 @@
       <c r="A16" s="586">
         <v>42736</v>
       </c>
-      <c r="B16" s="592"/>
-      <c r="C16" s="591" t="s">
+      <c r="B16" s="587"/>
+      <c r="C16" s="588" t="s">
         <v>320</v>
       </c>
-      <c r="D16" s="591" t="s">
-        <v>347</v>
+      <c r="D16" s="588" t="s">
+        <v>342</v>
       </c>
       <c r="E16" s="591" t="s">
         <v>358</v>
       </c>
-      <c r="F16" s="593" t="s">
+      <c r="F16" s="589" t="s">
         <v>105</v>
       </c>
     </row>
@@ -34147,7 +34225,7 @@
         <v>347</v>
       </c>
       <c r="E17" s="591" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F17" s="593" t="s">
         <v>105</v>
@@ -34157,35 +34235,35 @@
       <c r="A18" s="586">
         <v>42736</v>
       </c>
-      <c r="B18" s="587"/>
-      <c r="C18" s="588" t="s">
+      <c r="B18" s="592"/>
+      <c r="C18" s="591" t="s">
         <v>320</v>
       </c>
-      <c r="D18" s="588" t="s">
-        <v>342</v>
-      </c>
-      <c r="E18" s="588" t="s">
-        <v>153</v>
-      </c>
-      <c r="F18" s="589" t="s">
-        <v>106</v>
+      <c r="D18" s="591" t="s">
+        <v>347</v>
+      </c>
+      <c r="E18" s="591" t="s">
+        <v>357</v>
+      </c>
+      <c r="F18" s="593" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="19" spans="1:7" s="590" customFormat="1" ht="18">
       <c r="A19" s="586">
         <v>42736</v>
       </c>
-      <c r="B19" s="592"/>
-      <c r="C19" s="591" t="s">
+      <c r="B19" s="587"/>
+      <c r="C19" s="588" t="s">
         <v>320</v>
       </c>
-      <c r="D19" s="591" t="s">
-        <v>347</v>
-      </c>
-      <c r="E19" s="591" t="s">
+      <c r="D19" s="588" t="s">
+        <v>342</v>
+      </c>
+      <c r="E19" s="588" t="s">
         <v>153</v>
       </c>
-      <c r="F19" s="593" t="s">
+      <c r="F19" s="589" t="s">
         <v>106</v>
       </c>
     </row>
@@ -34193,18 +34271,18 @@
       <c r="A20" s="586">
         <v>42736</v>
       </c>
-      <c r="B20" s="587"/>
-      <c r="C20" s="588" t="s">
+      <c r="B20" s="592"/>
+      <c r="C20" s="591" t="s">
         <v>320</v>
       </c>
-      <c r="D20" s="588" t="s">
-        <v>345</v>
-      </c>
-      <c r="E20" s="588" t="s">
-        <v>358</v>
-      </c>
-      <c r="F20" s="589" t="s">
-        <v>105</v>
+      <c r="D20" s="591" t="s">
+        <v>347</v>
+      </c>
+      <c r="E20" s="591" t="s">
+        <v>153</v>
+      </c>
+      <c r="F20" s="593" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="21" spans="1:7" s="590" customFormat="1" ht="18">
@@ -34219,7 +34297,7 @@
         <v>345</v>
       </c>
       <c r="E21" s="588" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F21" s="589" t="s">
         <v>105</v>
@@ -34237,7 +34315,7 @@
         <v>345</v>
       </c>
       <c r="E22" s="588" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="F22" s="589" t="s">
         <v>105</v>
@@ -34247,38 +34325,37 @@
       <c r="A23" s="586">
         <v>42736</v>
       </c>
-      <c r="B23" s="592"/>
-      <c r="C23" s="591" t="s">
+      <c r="B23" s="587"/>
+      <c r="C23" s="588" t="s">
         <v>320</v>
       </c>
-      <c r="D23" s="591" t="s">
-        <v>351</v>
-      </c>
-      <c r="E23" s="591" t="s">
-        <v>358</v>
-      </c>
-      <c r="F23" s="593" t="s">
+      <c r="D23" s="588" t="s">
+        <v>345</v>
+      </c>
+      <c r="E23" s="588" t="s">
+        <v>357</v>
+      </c>
+      <c r="F23" s="589" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="597" customFormat="1" ht="20" customHeight="1">
+    <row r="24" spans="1:7" s="590" customFormat="1" ht="18">
       <c r="A24" s="586">
         <v>42736</v>
       </c>
-      <c r="B24" s="594"/>
-      <c r="C24" s="595" t="s">
+      <c r="B24" s="592"/>
+      <c r="C24" s="591" t="s">
         <v>320</v>
       </c>
-      <c r="D24" s="595" t="s">
+      <c r="D24" s="591" t="s">
         <v>351</v>
       </c>
-      <c r="E24" s="595" t="s">
-        <v>359</v>
-      </c>
-      <c r="F24" s="596" t="s">
+      <c r="E24" s="591" t="s">
+        <v>358</v>
+      </c>
+      <c r="F24" s="593" t="s">
         <v>105</v>
       </c>
-      <c r="G24" s="590"/>
     </row>
     <row r="25" spans="1:7" s="597" customFormat="1" ht="20" customHeight="1">
       <c r="A25" s="586">
@@ -34292,30 +34369,31 @@
         <v>351</v>
       </c>
       <c r="E25" s="595" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="F25" s="596" t="s">
         <v>105</v>
       </c>
       <c r="G25" s="590"/>
     </row>
-    <row r="26" spans="1:7" customFormat="1" ht="18">
-      <c r="A26" s="520">
+    <row r="26" spans="1:7" s="597" customFormat="1" ht="20" customHeight="1">
+      <c r="A26" s="586">
         <v>42736</v>
       </c>
-      <c r="B26" s="569"/>
-      <c r="C26" s="574" t="s">
-        <v>321</v>
-      </c>
-      <c r="D26" s="565" t="s">
-        <v>342</v>
-      </c>
-      <c r="E26" s="565" t="s">
-        <v>358</v>
-      </c>
-      <c r="F26" s="566" t="s">
+      <c r="B26" s="594"/>
+      <c r="C26" s="595" t="s">
+        <v>320</v>
+      </c>
+      <c r="D26" s="595" t="s">
+        <v>351</v>
+      </c>
+      <c r="E26" s="595" t="s">
+        <v>357</v>
+      </c>
+      <c r="F26" s="596" t="s">
         <v>105</v>
       </c>
+      <c r="G26" s="590"/>
     </row>
     <row r="27" spans="1:7" customFormat="1" ht="18">
       <c r="A27" s="520">
@@ -34329,7 +34407,7 @@
         <v>342</v>
       </c>
       <c r="E27" s="565" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F27" s="566" t="s">
         <v>105</v>
@@ -34339,17 +34417,17 @@
       <c r="A28" s="520">
         <v>42736</v>
       </c>
-      <c r="B28" s="568"/>
-      <c r="C28" s="567" t="s">
+      <c r="B28" s="569"/>
+      <c r="C28" s="574" t="s">
         <v>321</v>
       </c>
-      <c r="D28" s="563" t="s">
-        <v>347</v>
-      </c>
-      <c r="E28" s="563" t="s">
-        <v>358</v>
-      </c>
-      <c r="F28" s="564" t="s">
+      <c r="D28" s="565" t="s">
+        <v>342</v>
+      </c>
+      <c r="E28" s="565" t="s">
+        <v>357</v>
+      </c>
+      <c r="F28" s="566" t="s">
         <v>105</v>
       </c>
     </row>
@@ -34365,7 +34443,7 @@
         <v>347</v>
       </c>
       <c r="E29" s="563" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F29" s="564" t="s">
         <v>105</v>
@@ -34375,54 +34453,54 @@
       <c r="A30" s="520">
         <v>42736</v>
       </c>
-      <c r="B30" s="569"/>
-      <c r="C30" s="565" t="s">
+      <c r="B30" s="568"/>
+      <c r="C30" s="567" t="s">
         <v>321</v>
       </c>
-      <c r="D30" s="565" t="s">
+      <c r="D30" s="563" t="s">
+        <v>347</v>
+      </c>
+      <c r="E30" s="563" t="s">
+        <v>357</v>
+      </c>
+      <c r="F30" s="564" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" customFormat="1" ht="18">
+      <c r="A31" s="520">
+        <v>42736</v>
+      </c>
+      <c r="B31" s="569"/>
+      <c r="C31" s="565" t="s">
+        <v>321</v>
+      </c>
+      <c r="D31" s="565" t="s">
         <v>342</v>
       </c>
-      <c r="E30" s="565" t="s">
+      <c r="E31" s="565" t="s">
         <v>153</v>
       </c>
-      <c r="F30" s="566" t="s">
+      <c r="F31" s="566" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="31" spans="1:7" customFormat="1" ht="18">
-      <c r="A31" s="562">
+    <row r="32" spans="1:7" customFormat="1" ht="18">
+      <c r="A32" s="562">
         <v>42736</v>
       </c>
-      <c r="B31" s="568"/>
-      <c r="C31" s="563" t="s">
+      <c r="B32" s="568"/>
+      <c r="C32" s="563" t="s">
         <v>321</v>
       </c>
-      <c r="D31" s="563" t="s">
+      <c r="D32" s="563" t="s">
         <v>347</v>
       </c>
-      <c r="E31" s="563" t="s">
+      <c r="E32" s="563" t="s">
         <v>153</v>
       </c>
-      <c r="F31" s="564" t="s">
+      <c r="F32" s="564" t="s">
         <v>106</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" customFormat="1" ht="18">
-      <c r="A32" s="520">
-        <v>42736</v>
-      </c>
-      <c r="B32" s="569"/>
-      <c r="C32" s="565" t="s">
-        <v>321</v>
-      </c>
-      <c r="D32" s="565" t="s">
-        <v>345</v>
-      </c>
-      <c r="E32" s="565" t="s">
-        <v>358</v>
-      </c>
-      <c r="F32" s="566" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="33" spans="1:6" customFormat="1" ht="18">
@@ -34437,7 +34515,7 @@
         <v>345</v>
       </c>
       <c r="E33" s="565" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F33" s="566" t="s">
         <v>105</v>
@@ -34455,7 +34533,7 @@
         <v>345</v>
       </c>
       <c r="E34" s="565" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="F34" s="566" t="s">
         <v>105</v>
@@ -34470,10 +34548,10 @@
         <v>321</v>
       </c>
       <c r="D35" s="565" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="E35" s="565" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F35" s="566" t="s">
         <v>105</v>
@@ -34491,7 +34569,7 @@
         <v>351</v>
       </c>
       <c r="E36" s="565" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F36" s="566" t="s">
         <v>105</v>
@@ -34509,7 +34587,7 @@
         <v>351</v>
       </c>
       <c r="E37" s="565" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="F37" s="566" t="s">
         <v>105</v>
@@ -34520,14 +34598,14 @@
         <v>42736</v>
       </c>
       <c r="B38" s="569"/>
-      <c r="C38" s="574" t="s">
-        <v>322</v>
+      <c r="C38" s="565" t="s">
+        <v>321</v>
       </c>
       <c r="D38" s="565" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="E38" s="565" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F38" s="566" t="s">
         <v>105</v>
@@ -34545,27 +34623,27 @@
         <v>342</v>
       </c>
       <c r="E39" s="565" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F39" s="566" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="40" spans="1:6" customFormat="1" ht="18">
-      <c r="A40" s="562">
+      <c r="A40" s="520">
         <v>42736</v>
       </c>
-      <c r="B40" s="568"/>
-      <c r="C40" s="567" t="s">
+      <c r="B40" s="569"/>
+      <c r="C40" s="574" t="s">
         <v>322</v>
       </c>
-      <c r="D40" s="563" t="s">
-        <v>347</v>
-      </c>
-      <c r="E40" s="563" t="s">
-        <v>358</v>
-      </c>
-      <c r="F40" s="564" t="s">
+      <c r="D40" s="565" t="s">
+        <v>342</v>
+      </c>
+      <c r="E40" s="565" t="s">
+        <v>357</v>
+      </c>
+      <c r="F40" s="566" t="s">
         <v>105</v>
       </c>
     </row>
@@ -34581,64 +34659,64 @@
         <v>347</v>
       </c>
       <c r="E41" s="563" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F41" s="564" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="42" spans="1:6" customFormat="1" ht="18">
-      <c r="A42" s="520">
+      <c r="A42" s="562">
         <v>42736</v>
       </c>
-      <c r="B42" s="569"/>
-      <c r="C42" s="565" t="s">
+      <c r="B42" s="568"/>
+      <c r="C42" s="567" t="s">
         <v>322</v>
       </c>
-      <c r="D42" s="565" t="s">
+      <c r="D42" s="563" t="s">
+        <v>347</v>
+      </c>
+      <c r="E42" s="563" t="s">
+        <v>357</v>
+      </c>
+      <c r="F42" s="564" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" customFormat="1" ht="18">
+      <c r="A43" s="520">
+        <v>42736</v>
+      </c>
+      <c r="B43" s="569"/>
+      <c r="C43" s="565" t="s">
+        <v>322</v>
+      </c>
+      <c r="D43" s="565" t="s">
         <v>342</v>
       </c>
-      <c r="E42" s="565" t="s">
+      <c r="E43" s="565" t="s">
         <v>153</v>
       </c>
-      <c r="F42" s="566" t="s">
+      <c r="F43" s="566" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="43" spans="1:6" customFormat="1" ht="18">
-      <c r="A43" s="562">
+    <row r="44" spans="1:6" customFormat="1" ht="18">
+      <c r="A44" s="562">
         <v>42736</v>
       </c>
-      <c r="B43" s="568"/>
-      <c r="C43" s="563" t="s">
+      <c r="B44" s="568"/>
+      <c r="C44" s="563" t="s">
         <v>322</v>
       </c>
-      <c r="D43" s="563" t="s">
+      <c r="D44" s="563" t="s">
         <v>347</v>
       </c>
-      <c r="E43" s="563" t="s">
+      <c r="E44" s="563" t="s">
         <v>153</v>
       </c>
-      <c r="F43" s="564" t="s">
+      <c r="F44" s="564" t="s">
         <v>106</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" customFormat="1" ht="18">
-      <c r="A44" s="520">
-        <v>42736</v>
-      </c>
-      <c r="B44" s="569"/>
-      <c r="C44" s="565" t="s">
-        <v>322</v>
-      </c>
-      <c r="D44" s="565" t="s">
-        <v>345</v>
-      </c>
-      <c r="E44" s="565" t="s">
-        <v>358</v>
-      </c>
-      <c r="F44" s="566" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="45" spans="1:6" customFormat="1" ht="18">
@@ -34653,7 +34731,7 @@
         <v>345</v>
       </c>
       <c r="E45" s="565" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F45" s="566" t="s">
         <v>105</v>
@@ -34671,27 +34749,27 @@
         <v>345</v>
       </c>
       <c r="E46" s="565" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="F46" s="566" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="47" spans="1:6" customFormat="1" ht="18">
-      <c r="A47" s="562">
+      <c r="A47" s="520">
         <v>42736</v>
       </c>
-      <c r="B47" s="568"/>
-      <c r="C47" s="563" t="s">
+      <c r="B47" s="569"/>
+      <c r="C47" s="565" t="s">
         <v>322</v>
       </c>
-      <c r="D47" s="563" t="s">
-        <v>351</v>
-      </c>
-      <c r="E47" s="563" t="s">
-        <v>358</v>
-      </c>
-      <c r="F47" s="564" t="s">
+      <c r="D47" s="565" t="s">
+        <v>345</v>
+      </c>
+      <c r="E47" s="565" t="s">
+        <v>357</v>
+      </c>
+      <c r="F47" s="566" t="s">
         <v>105</v>
       </c>
     </row>
@@ -34707,7 +34785,7 @@
         <v>351</v>
       </c>
       <c r="E48" s="563" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F48" s="564" t="s">
         <v>105</v>
@@ -34725,27 +34803,27 @@
         <v>351</v>
       </c>
       <c r="E49" s="563" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="F49" s="564" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="50" spans="1:6" customFormat="1" ht="18">
-      <c r="A50" s="520">
+      <c r="A50" s="562">
         <v>42736</v>
       </c>
-      <c r="B50" s="569"/>
-      <c r="C50" s="574" t="s">
-        <v>323</v>
-      </c>
-      <c r="D50" s="565" t="s">
-        <v>342</v>
-      </c>
-      <c r="E50" s="565" t="s">
-        <v>358</v>
-      </c>
-      <c r="F50" s="566" t="s">
+      <c r="B50" s="568"/>
+      <c r="C50" s="563" t="s">
+        <v>322</v>
+      </c>
+      <c r="D50" s="563" t="s">
+        <v>351</v>
+      </c>
+      <c r="E50" s="563" t="s">
+        <v>357</v>
+      </c>
+      <c r="F50" s="564" t="s">
         <v>105</v>
       </c>
     </row>
@@ -34761,27 +34839,27 @@
         <v>342</v>
       </c>
       <c r="E51" s="565" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F51" s="566" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="52" spans="1:6" customFormat="1" ht="18">
-      <c r="A52" s="562">
+      <c r="A52" s="520">
         <v>42736</v>
       </c>
-      <c r="B52" s="568"/>
-      <c r="C52" s="567" t="s">
+      <c r="B52" s="569"/>
+      <c r="C52" s="574" t="s">
         <v>323</v>
       </c>
-      <c r="D52" s="563" t="s">
-        <v>347</v>
-      </c>
-      <c r="E52" s="563" t="s">
-        <v>358</v>
-      </c>
-      <c r="F52" s="564" t="s">
+      <c r="D52" s="565" t="s">
+        <v>342</v>
+      </c>
+      <c r="E52" s="565" t="s">
+        <v>357</v>
+      </c>
+      <c r="F52" s="566" t="s">
         <v>105</v>
       </c>
     </row>
@@ -34797,64 +34875,64 @@
         <v>347</v>
       </c>
       <c r="E53" s="563" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F53" s="564" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="54" spans="1:6" customFormat="1" ht="18">
-      <c r="A54" s="520">
+      <c r="A54" s="562">
         <v>42736</v>
       </c>
-      <c r="B54" s="569"/>
-      <c r="C54" s="565" t="s">
+      <c r="B54" s="568"/>
+      <c r="C54" s="567" t="s">
         <v>323</v>
       </c>
-      <c r="D54" s="565" t="s">
+      <c r="D54" s="563" t="s">
+        <v>347</v>
+      </c>
+      <c r="E54" s="563" t="s">
+        <v>357</v>
+      </c>
+      <c r="F54" s="564" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" customFormat="1" ht="18">
+      <c r="A55" s="520">
+        <v>42736</v>
+      </c>
+      <c r="B55" s="569"/>
+      <c r="C55" s="565" t="s">
+        <v>323</v>
+      </c>
+      <c r="D55" s="565" t="s">
         <v>342</v>
       </c>
-      <c r="E54" s="565" t="s">
+      <c r="E55" s="565" t="s">
         <v>153</v>
       </c>
-      <c r="F54" s="566" t="s">
+      <c r="F55" s="566" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="55" spans="1:6" customFormat="1" ht="18">
-      <c r="A55" s="562">
+    <row r="56" spans="1:6" customFormat="1" ht="18">
+      <c r="A56" s="562">
         <v>42736</v>
       </c>
-      <c r="B55" s="568"/>
-      <c r="C55" s="563" t="s">
+      <c r="B56" s="568"/>
+      <c r="C56" s="563" t="s">
         <v>323</v>
       </c>
-      <c r="D55" s="563" t="s">
+      <c r="D56" s="563" t="s">
         <v>347</v>
       </c>
-      <c r="E55" s="563" t="s">
+      <c r="E56" s="563" t="s">
         <v>153</v>
       </c>
-      <c r="F55" s="564" t="s">
+      <c r="F56" s="564" t="s">
         <v>106</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" customFormat="1" ht="18">
-      <c r="A56" s="520">
-        <v>42736</v>
-      </c>
-      <c r="B56" s="569"/>
-      <c r="C56" s="565" t="s">
-        <v>323</v>
-      </c>
-      <c r="D56" s="565" t="s">
-        <v>345</v>
-      </c>
-      <c r="E56" s="563" t="s">
-        <v>358</v>
-      </c>
-      <c r="F56" s="566" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="57" spans="1:6" customFormat="1" ht="18">
@@ -34869,7 +34947,7 @@
         <v>345</v>
       </c>
       <c r="E57" s="563" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F57" s="566" t="s">
         <v>105</v>
@@ -34887,7 +34965,7 @@
         <v>345</v>
       </c>
       <c r="E58" s="563" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="F58" s="566" t="s">
         <v>105</v>
@@ -34902,10 +34980,10 @@
         <v>323</v>
       </c>
       <c r="D59" s="565" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="E59" s="563" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F59" s="566" t="s">
         <v>105</v>
@@ -34923,7 +35001,7 @@
         <v>351</v>
       </c>
       <c r="E60" s="563" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F60" s="566" t="s">
         <v>105</v>
@@ -34941,7 +35019,7 @@
         <v>351</v>
       </c>
       <c r="E61" s="563" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="F61" s="566" t="s">
         <v>105</v>
@@ -34952,14 +35030,14 @@
         <v>42736</v>
       </c>
       <c r="B62" s="569"/>
-      <c r="C62" s="574" t="s">
-        <v>324</v>
+      <c r="C62" s="565" t="s">
+        <v>323</v>
       </c>
       <c r="D62" s="565" t="s">
-        <v>342</v>
-      </c>
-      <c r="E62" s="565" t="s">
-        <v>356</v>
+        <v>351</v>
+      </c>
+      <c r="E62" s="563" t="s">
+        <v>357</v>
       </c>
       <c r="F62" s="566" t="s">
         <v>105</v>
@@ -34977,7 +35055,7 @@
         <v>342</v>
       </c>
       <c r="E63" s="565" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F63" s="566" t="s">
         <v>105</v>
@@ -34992,10 +35070,10 @@
         <v>324</v>
       </c>
       <c r="D64" s="565" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="E64" s="565" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="F64" s="566" t="s">
         <v>105</v>
@@ -35013,7 +35091,7 @@
         <v>347</v>
       </c>
       <c r="E65" s="565" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F65" s="566" t="s">
         <v>105</v>
@@ -35024,53 +35102,53 @@
         <v>42736</v>
       </c>
       <c r="B66" s="569"/>
-      <c r="C66" s="565" t="s">
+      <c r="C66" s="574" t="s">
         <v>324</v>
       </c>
       <c r="D66" s="565" t="s">
+        <v>347</v>
+      </c>
+      <c r="E66" s="565" t="s">
+        <v>357</v>
+      </c>
+      <c r="F66" s="566" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" customFormat="1" ht="18">
+      <c r="A67" s="520">
+        <v>42736</v>
+      </c>
+      <c r="B67" s="569"/>
+      <c r="C67" s="565" t="s">
+        <v>324</v>
+      </c>
+      <c r="D67" s="565" t="s">
         <v>342</v>
       </c>
-      <c r="E66" s="565" t="s">
+      <c r="E67" s="565" t="s">
         <v>153</v>
       </c>
-      <c r="F66" s="566" t="s">
+      <c r="F67" s="566" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="67" spans="1:6" customFormat="1" ht="18">
-      <c r="A67" s="562">
+    <row r="68" spans="1:6" customFormat="1" ht="18">
+      <c r="A68" s="562">
         <v>42736</v>
       </c>
-      <c r="B67" s="568"/>
-      <c r="C67" s="563" t="s">
+      <c r="B68" s="568"/>
+      <c r="C68" s="563" t="s">
         <v>324</v>
       </c>
-      <c r="D67" s="563" t="s">
+      <c r="D68" s="563" t="s">
         <v>347</v>
       </c>
-      <c r="E67" s="563" t="s">
+      <c r="E68" s="563" t="s">
         <v>153</v>
       </c>
-      <c r="F67" s="564" t="s">
+      <c r="F68" s="564" t="s">
         <v>106</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" customFormat="1" ht="18">
-      <c r="A68" s="520">
-        <v>42736</v>
-      </c>
-      <c r="B68" s="569"/>
-      <c r="C68" s="565" t="s">
-        <v>324</v>
-      </c>
-      <c r="D68" s="565" t="s">
-        <v>345</v>
-      </c>
-      <c r="E68" s="565" t="s">
-        <v>356</v>
-      </c>
-      <c r="F68" s="566" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="69" spans="1:6" customFormat="1" ht="18">
@@ -35085,27 +35163,27 @@
         <v>345</v>
       </c>
       <c r="E69" s="565" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F69" s="566" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="70" spans="1:6" customFormat="1" ht="18">
-      <c r="A70" s="562">
+      <c r="A70" s="520">
         <v>42736</v>
       </c>
-      <c r="B70" s="568"/>
-      <c r="C70" s="563" t="s">
+      <c r="B70" s="569"/>
+      <c r="C70" s="565" t="s">
         <v>324</v>
       </c>
-      <c r="D70" s="563" t="s">
-        <v>351</v>
+      <c r="D70" s="565" t="s">
+        <v>345</v>
       </c>
       <c r="E70" s="565" t="s">
-        <v>356</v>
-      </c>
-      <c r="F70" s="564" t="s">
+        <v>357</v>
+      </c>
+      <c r="F70" s="566" t="s">
         <v>105</v>
       </c>
     </row>
@@ -35120,10 +35198,28 @@
       <c r="D71" s="563" t="s">
         <v>351</v>
       </c>
-      <c r="E71" s="575" t="s">
+      <c r="E71" s="565" t="s">
+        <v>356</v>
+      </c>
+      <c r="F71" s="564" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" customFormat="1" ht="18">
+      <c r="A72" s="562">
+        <v>42736</v>
+      </c>
+      <c r="B72" s="568"/>
+      <c r="C72" s="563" t="s">
+        <v>324</v>
+      </c>
+      <c r="D72" s="563" t="s">
+        <v>351</v>
+      </c>
+      <c r="E72" s="575" t="s">
         <v>357</v>
       </c>
-      <c r="F71" s="564" t="s">
+      <c r="F72" s="564" t="s">
         <v>105</v>
       </c>
     </row>
@@ -35143,8 +35239,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C46E332-1601-DB46-9E37-4B0D4219E272}">
   <dimension ref="A1:K51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13"/>
@@ -36007,11 +36103,105 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6635FB5-35DB-044D-896D-87C92486465A}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <cols>
+    <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="18">
+      <c r="A1" s="606" t="s">
+        <v>375</v>
+      </c>
+      <c r="B1" s="607" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="608" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="196">
+      <c r="A2" s="609"/>
+      <c r="B2" s="609" t="s">
+        <v>376</v>
+      </c>
+      <c r="C2" s="609" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15">
+      <c r="A3" s="610" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="610" t="s">
+        <v>378</v>
+      </c>
+      <c r="C3" s="610" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="331" t="s">
+        <v>320</v>
+      </c>
+      <c r="B4" s="611" t="s">
+        <v>330</v>
+      </c>
+      <c r="C4" s="611" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="331" t="s">
+        <v>320</v>
+      </c>
+      <c r="B5" s="611" t="s">
+        <v>333</v>
+      </c>
+      <c r="C5" s="611" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="331" t="s">
+        <v>320</v>
+      </c>
+      <c r="B6" s="611" t="s">
+        <v>335</v>
+      </c>
+      <c r="C6" s="611" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="331" t="s">
+        <v>320</v>
+      </c>
+      <c r="B7" s="611" t="s">
+        <v>338</v>
+      </c>
+      <c r="C7" s="611" t="s">
+        <v>338</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="74" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
@@ -36616,8 +36806,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:IO188"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
